--- a/Romi Pins.xlsx
+++ b/Romi Pins.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -66,300 +66,474 @@
     <t>https://www.st.com/resource/en/datasheet/stm32l476je.pdf</t>
   </si>
   <si>
+    <t>https://docs.micropython.org/en/latest/library/pyb.html#module-pyb</t>
+  </si>
+  <si>
+    <t>CN7 Odd Pins</t>
+  </si>
+  <si>
+    <t>CN7 Even Pins</t>
+  </si>
+  <si>
+    <t>Nucleo STM 32L476xx Pin CN7 and CN10 Header Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor Device Logic </t>
+  </si>
+  <si>
+    <t>Wire Color/ Connection</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Func.</t>
+  </si>
+  <si>
+    <t>Pin Name</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Bump 4</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Bump 3</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>BT Rx -&gt; Romi TX</t>
+  </si>
+  <si>
+    <t>Bluetooth RX</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Bluetooth TXD</t>
+  </si>
+  <si>
+    <t>BT Wr -&gt; Romi read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green </t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>E5V</t>
+  </si>
+  <si>
+    <t>5V Power</t>
+  </si>
+  <si>
+    <t>Line Sensor Power</t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Line Sensor GND</t>
+  </si>
+  <si>
+    <t>Pin Not Connected</t>
+  </si>
+  <si>
+    <t>Not Connected</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>IOREF</t>
+  </si>
+  <si>
+    <t>Do Not Connect</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow </t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>3.3V Power</t>
+  </si>
+  <si>
+    <t>IMU Power</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Bump 5</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>Bluetooth Power</t>
+  </si>
+  <si>
+    <t>UART 5</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Bluetooth GND</t>
+  </si>
+  <si>
+    <t>Timer Information</t>
+  </si>
+  <si>
+    <t>Timer 4, Ch 2</t>
+  </si>
+  <si>
+    <t>Left Motor EN</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>Battery Ground</t>
+  </si>
+  <si>
+    <t>From PDB</t>
+  </si>
+  <si>
+    <t>Blue Buton Pin</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
     <t>Battery Power</t>
   </si>
   <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>Blue</t>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Left Encoder A</t>
   </si>
   <si>
     <t>Timer 2, Ch. 1</t>
   </si>
   <si>
-    <t>A0</t>
+    <t>Left Motor (NSLP)</t>
+  </si>
+  <si>
+    <t>DIG I/O</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Left Encoder B</t>
   </si>
   <si>
     <t>Timer 2, Ch. 2</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>Left Motor DIR</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Analog_in</t>
+  </si>
+  <si>
+    <t>IR 1</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>IR 3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>IR 5</t>
+  </si>
+  <si>
+    <t>Bat ADC</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>IR 7</t>
+  </si>
+  <si>
+    <t>CN10 Odd Pins</t>
+  </si>
+  <si>
+    <t>CN10 Even Pins</t>
+  </si>
+  <si>
+    <t>Bump 2</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>Bump 1</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>IR 13</t>
+  </si>
+  <si>
+    <t>AVDD</t>
+  </si>
+  <si>
+    <t>U5V</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>Right Motor (NSLP)</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>Right Motor DIR</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>Timer 4, Ch 1</t>
+  </si>
+  <si>
+    <t>Right Motor EN</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>SDA2</t>
+  </si>
+  <si>
+    <t>IMU SDA</t>
+  </si>
+  <si>
+    <t>Bump 0</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>IMU GND</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>IMU Reset</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>IR 11</t>
+  </si>
+  <si>
+    <t>IMU SCL</t>
+  </si>
+  <si>
+    <t>SCL2</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B15</t>
   </si>
   <si>
     <t>Timer 3, Ch. 3</t>
   </si>
   <si>
+    <t>Right Encoder A</t>
+  </si>
+  <si>
     <t>B4</t>
   </si>
   <si>
+    <t>B14</t>
+  </si>
+  <si>
     <t>Timer 3, Ch. 4</t>
   </si>
   <si>
+    <t>Right Encoder B</t>
+  </si>
+  <si>
     <t>B5</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H0</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>BT Rx -&gt; Romi TX</t>
-  </si>
-  <si>
-    <t>Bluetooth RX</t>
-  </si>
-  <si>
-    <t>Bluetooth TXD</t>
-  </si>
-  <si>
-    <t>BT Wr -&gt; Romi read</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>VDD</t>
-  </si>
-  <si>
-    <t>E5V</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>Analog_in</t>
-  </si>
-  <si>
-    <t>BOOT0</t>
-  </si>
-  <si>
-    <t>AVDD</t>
-  </si>
-  <si>
-    <t>U5V</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>IOREF</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>DIG I/O</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>3V3</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>5V Power</t>
-  </si>
-  <si>
-    <t>UART 5</t>
-  </si>
-  <si>
-    <t>Timer 4, Ch 1</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>Timer 4, Ch 2</t>
-  </si>
-  <si>
-    <t>Battery Ground</t>
-  </si>
-  <si>
-    <t>From PDB</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>Encoder</t>
-  </si>
-  <si>
-    <t>Left Encoder A</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>Left Encoder B</t>
-  </si>
-  <si>
     <t>B13</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>B3</t>
   </si>
   <si>
     <t>AGND</t>
   </si>
   <si>
-    <t>VBAT</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>IR 9</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>Bat ADC</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>C0</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>Table 17 of Nucleo STM32L476xx Datasheet (Page 94)</t>
+  </si>
+  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -514,180 +688,6 @@
   </si>
   <si>
     <t>Alkaline</t>
-  </si>
-  <si>
-    <t>IR 13</t>
-  </si>
-  <si>
-    <t>IR 11</t>
-  </si>
-  <si>
-    <t>IR 9</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>IR 7</t>
-  </si>
-  <si>
-    <t>IR 5</t>
-  </si>
-  <si>
-    <t>IR 3</t>
-  </si>
-  <si>
-    <t>IR 1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>Bump 4</t>
-  </si>
-  <si>
-    <t>Bump 5</t>
-  </si>
-  <si>
-    <t>Bump 3</t>
-  </si>
-  <si>
-    <t>Bump 2</t>
-  </si>
-  <si>
-    <t>Bump 0</t>
-  </si>
-  <si>
-    <t>3.3V Power</t>
-  </si>
-  <si>
-    <t>Right Encoder A</t>
-  </si>
-  <si>
-    <t>Right Encoder B</t>
-  </si>
-  <si>
-    <t>Right Motor (NSLP)</t>
-  </si>
-  <si>
-    <t>Right Motor DIR</t>
-  </si>
-  <si>
-    <t>Right Motor EN</t>
-  </si>
-  <si>
-    <t>Left Motor EN</t>
-  </si>
-  <si>
-    <t>Left Motor (NSLP)</t>
-  </si>
-  <si>
-    <t>Left Motor DIR</t>
-  </si>
-  <si>
-    <t>SDA2</t>
-  </si>
-  <si>
-    <t>SCL2</t>
-  </si>
-  <si>
-    <t>IMU SCL</t>
-  </si>
-  <si>
-    <t>IMU SDA</t>
-  </si>
-  <si>
-    <t>IMU Reset</t>
-  </si>
-  <si>
-    <t>IMU GND</t>
-  </si>
-  <si>
-    <t>Blue Buton Pin</t>
-  </si>
-  <si>
-    <t>CN7 Odd Pins</t>
-  </si>
-  <si>
-    <t>CN7 Even Pins</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Not Connected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green </t>
-  </si>
-  <si>
-    <t>Do Not Connect</t>
-  </si>
-  <si>
-    <t>Wire Color/ Connection</t>
-  </si>
-  <si>
-    <t>CN10 Odd Pins</t>
-  </si>
-  <si>
-    <t>CN10 Even Pins</t>
-  </si>
-  <si>
-    <t>Pin Name</t>
-  </si>
-  <si>
-    <t>Func.</t>
-  </si>
-  <si>
-    <t>Bump 1</t>
-  </si>
-  <si>
-    <t>Pin Not Connected</t>
-  </si>
-  <si>
-    <t>Bluetooth GND</t>
-  </si>
-  <si>
-    <t>Bluetooth Power</t>
-  </si>
-  <si>
-    <t>IMU Power</t>
-  </si>
-  <si>
-    <t>Nucleo STM 32L476xx Pin CN7 and CN10 Header Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor Device Logic </t>
-  </si>
-  <si>
-    <t>Timer Information</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Table 17 of Nucleo STM32L476xx Datasheet (Page 94)</t>
-  </si>
-  <si>
-    <t>Line Sensor GND</t>
-  </si>
-  <si>
-    <t>Line Sensor Power</t>
-  </si>
-  <si>
-    <t>Unused</t>
-  </si>
-  <si>
-    <t>https://docs.micropython.org/en/latest/library/pyb.html#module-pyb</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1428,6 +1428,21 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,21 +1462,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2709,7 +2709,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
@@ -2727,115 +2727,115 @@
     <col min="14" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
+    <row r="2" spans="2:38" ht="15" customHeight="1">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83"/>
-    </row>
-    <row r="3" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="83">
+      <c r="C2" s="76"/>
+    </row>
+    <row r="3" spans="2:38" ht="15" customHeight="1">
+      <c r="B3" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83">
+    <row r="4" spans="2:38" ht="15" customHeight="1">
+      <c r="B4" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>2</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="77" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83">
+    <row r="5" spans="2:38" ht="15" customHeight="1">
+      <c r="B5" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>3</v>
       </c>
-      <c r="C5" s="85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="O7" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="78"/>
-      <c r="AA7" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="81"/>
-    </row>
-    <row r="8" spans="2:38" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="O7" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="85"/>
+      <c r="AA7" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="88"/>
+    </row>
+    <row r="8" spans="2:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="B8" s="36" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="O8" s="38"/>
       <c r="P8" s="39"/>
@@ -2861,35 +2861,35 @@
       <c r="AK8" s="59"/>
       <c r="AL8" s="60"/>
     </row>
-    <row r="9" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" ht="15" customHeight="1">
       <c r="B9" s="26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="39"/>
@@ -2915,39 +2915,39 @@
       <c r="AK9" s="59"/>
       <c r="AL9" s="60"/>
     </row>
-    <row r="10" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:38" ht="15" customHeight="1">
       <c r="B10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="F10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="G10" s="34" t="s">
         <v>26</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="O10" s="38"/>
       <c r="P10" s="39"/>
@@ -2973,29 +2973,29 @@
       <c r="AK10" s="59"/>
       <c r="AL10" s="60"/>
     </row>
-    <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:38" ht="15" customHeight="1">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="50"/>
       <c r="F11" s="47" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="O11" s="38"/>
       <c r="P11" s="39"/>
@@ -3021,29 +3021,29 @@
       <c r="AK11" s="59"/>
       <c r="AL11" s="60"/>
     </row>
-    <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:38" ht="15" customHeight="1">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="50"/>
       <c r="F12" s="47" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O12" s="38"/>
       <c r="P12" s="39"/>
@@ -3069,39 +3069,39 @@
       <c r="AK12" s="59"/>
       <c r="AL12" s="60"/>
     </row>
-    <row r="13" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:38" ht="15" customHeight="1">
       <c r="B13" s="27" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="O13" s="38"/>
       <c r="P13" s="39"/>
@@ -3127,31 +3127,31 @@
       <c r="AK13" s="59"/>
       <c r="AL13" s="60"/>
     </row>
-    <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38" ht="15" customHeight="1">
       <c r="B14" s="27" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="M14" s="74" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O14" s="38"/>
       <c r="P14" s="39"/>
@@ -3177,27 +3177,27 @@
       <c r="AK14" s="59"/>
       <c r="AL14" s="60"/>
     </row>
-    <row r="15" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" ht="15" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="M15" s="23" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="O15" s="38"/>
       <c r="P15" s="39"/>
@@ -3223,33 +3223,33 @@
       <c r="AK15" s="59"/>
       <c r="AL15" s="60"/>
     </row>
-    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" ht="15" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="O16" s="38"/>
       <c r="P16" s="39"/>
@@ -3275,37 +3275,37 @@
       <c r="AK16" s="62"/>
       <c r="AL16" s="63"/>
     </row>
-    <row r="17" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" ht="15" customHeight="1">
       <c r="B17" s="27" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="O17" s="38"/>
       <c r="P17" s="39"/>
@@ -3319,29 +3319,29 @@
       <c r="X17" s="39"/>
       <c r="Y17" s="40"/>
     </row>
-    <row r="18" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:38" ht="15" customHeight="1" thickBot="1">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="50"/>
       <c r="F18" s="47" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O18" s="38"/>
       <c r="P18" s="39"/>
@@ -3354,54 +3354,54 @@
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="40"/>
-      <c r="AA18" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="80"/>
-      <c r="AL18" s="81"/>
-    </row>
-    <row r="19" spans="2:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="88"/>
+    </row>
+    <row r="19" spans="2:38" ht="15" customHeight="1" thickTop="1">
       <c r="B19" s="27" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="O19" s="38"/>
       <c r="P19" s="39"/>
@@ -3427,37 +3427,37 @@
       <c r="AK19" s="59"/>
       <c r="AL19" s="60"/>
     </row>
-    <row r="20" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:38" ht="15" customHeight="1">
       <c r="B20" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="O20" s="38"/>
       <c r="P20" s="39"/>
@@ -3483,35 +3483,35 @@
       <c r="AK20" s="59"/>
       <c r="AL20" s="60"/>
     </row>
-    <row r="21" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" ht="15" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="O21" s="38"/>
       <c r="P21" s="39"/>
@@ -3537,32 +3537,32 @@
       <c r="AK21" s="59"/>
       <c r="AL21" s="60"/>
     </row>
-    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" ht="15" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="O22" s="38"/>
       <c r="P22" s="39"/>
@@ -3588,34 +3588,34 @@
       <c r="AK22" s="59"/>
       <c r="AL22" s="60"/>
     </row>
-    <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" ht="15" customHeight="1">
       <c r="B23" s="27" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="27" t="s">
-        <v>11</v>
-      </c>
       <c r="K23" s="27" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="O23" s="38"/>
       <c r="P23" s="39"/>
@@ -3641,32 +3641,32 @@
       <c r="AK23" s="59"/>
       <c r="AL23" s="60"/>
     </row>
-    <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" ht="15" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O24" s="38"/>
       <c r="P24" s="39"/>
@@ -3692,26 +3692,26 @@
       <c r="AK24" s="59"/>
       <c r="AL24" s="60"/>
     </row>
-    <row r="25" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" ht="15" customHeight="1">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="50"/>
       <c r="F25" s="47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="O25" s="38"/>
       <c r="P25" s="39"/>
@@ -3737,28 +3737,28 @@
       <c r="AK25" s="59"/>
       <c r="AL25" s="60"/>
     </row>
-    <row r="26" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" ht="15" customHeight="1">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="55" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>95</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="27" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="O26" s="38"/>
       <c r="P26" s="39"/>
@@ -3784,34 +3784,34 @@
       <c r="AK26" s="59"/>
       <c r="AL26" s="60"/>
     </row>
-    <row r="27" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:38" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="28" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H27" s="57" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="28" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="O27" s="38"/>
       <c r="P27" s="39"/>
@@ -3837,7 +3837,7 @@
       <c r="AK27" s="59"/>
       <c r="AL27" s="60"/>
     </row>
-    <row r="28" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" ht="15" customHeight="1">
       <c r="O28" s="38"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -3862,21 +3862,21 @@
       <c r="AK28" s="59"/>
       <c r="AL28" s="60"/>
     </row>
-    <row r="29" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
+    <row r="29" spans="2:38" ht="15" customHeight="1">
+      <c r="B29" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
       <c r="O29" s="38"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -3901,36 +3901,36 @@
       <c r="AK29" s="59"/>
       <c r="AL29" s="60"/>
     </row>
-    <row r="30" spans="2:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:38" ht="30" customHeight="1" thickBot="1">
       <c r="B30" s="36" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="O30" s="38"/>
       <c r="P30" s="39"/>
@@ -3956,22 +3956,22 @@
       <c r="AK30" s="59"/>
       <c r="AL30" s="60"/>
     </row>
-    <row r="31" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" ht="15" customHeight="1">
       <c r="B31" s="26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="26"/>
@@ -4001,22 +4001,22 @@
       <c r="AK31" s="59"/>
       <c r="AL31" s="60"/>
     </row>
-    <row r="32" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:38" ht="15" customHeight="1">
       <c r="B32" s="27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="27"/>
@@ -4046,26 +4046,26 @@
       <c r="AK32" s="59"/>
       <c r="AL32" s="60"/>
     </row>
-    <row r="33" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:38" ht="15" customHeight="1">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="50"/>
       <c r="F33" s="47" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O33" s="38"/>
       <c r="P33" s="39"/>
@@ -4091,16 +4091,16 @@
       <c r="AK33" s="59"/>
       <c r="AL33" s="60"/>
     </row>
-    <row r="34" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:38" ht="15" customHeight="1">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="50"/>
       <c r="F34" s="47" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="27"/>
@@ -4130,28 +4130,28 @@
       <c r="AK34" s="59"/>
       <c r="AL34" s="60"/>
     </row>
-    <row r="35" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:38" ht="15" customHeight="1">
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="50"/>
       <c r="F35" s="47" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H35" s="52" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="O35" s="38"/>
       <c r="P35" s="39"/>
@@ -4177,30 +4177,30 @@
       <c r="AK35" s="59"/>
       <c r="AL35" s="60"/>
     </row>
-    <row r="36" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" ht="15" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="50" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H36" s="67" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="O36" s="38"/>
       <c r="P36" s="39"/>
@@ -4226,30 +4226,30 @@
       <c r="AK36" s="59"/>
       <c r="AL36" s="60"/>
     </row>
-    <row r="37" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" ht="15" customHeight="1">
       <c r="B37" s="27" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="O37" s="38"/>
       <c r="P37" s="39"/>
@@ -4275,22 +4275,22 @@
       <c r="AK37" s="59"/>
       <c r="AL37" s="60"/>
     </row>
-    <row r="38" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" ht="15" customHeight="1">
       <c r="B38" s="27" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="H38" s="52"/>
       <c r="I38" s="27"/>
@@ -4320,34 +4320,34 @@
       <c r="AK38" s="59"/>
       <c r="AL38" s="60"/>
     </row>
-    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" ht="15" customHeight="1">
       <c r="B39" s="27" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="H39" s="52" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="J39" s="27"/>
       <c r="K39" s="27" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="O39" s="38"/>
       <c r="P39" s="39"/>
@@ -4373,32 +4373,32 @@
       <c r="AK39" s="59"/>
       <c r="AL39" s="60"/>
     </row>
-    <row r="40" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" ht="15" customHeight="1">
       <c r="B40" s="27" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="27" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="O40" s="38"/>
       <c r="P40" s="39"/>
@@ -4424,30 +4424,30 @@
       <c r="AK40" s="59"/>
       <c r="AL40" s="60"/>
     </row>
-    <row r="41" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:38" ht="15" customHeight="1">
       <c r="B41" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O41" s="38"/>
       <c r="P41" s="39"/>
@@ -4473,26 +4473,26 @@
       <c r="AK41" s="59"/>
       <c r="AL41" s="60"/>
     </row>
-    <row r="42" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:38" ht="15" customHeight="1">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="50"/>
       <c r="F42" s="47" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="27" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="O42" s="38"/>
       <c r="P42" s="39"/>
@@ -4518,22 +4518,22 @@
       <c r="AK42" s="59"/>
       <c r="AL42" s="60"/>
     </row>
-    <row r="43" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:38" ht="15" customHeight="1">
       <c r="B43" s="27" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="27"/>
@@ -4563,24 +4563,24 @@
       <c r="AK43" s="59"/>
       <c r="AL43" s="60"/>
     </row>
-    <row r="44" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:38" ht="15" customHeight="1">
       <c r="B44" s="27" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="27"/>
@@ -4610,24 +4610,24 @@
       <c r="AK44" s="59"/>
       <c r="AL44" s="60"/>
     </row>
-    <row r="45" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:38" ht="15" customHeight="1">
       <c r="B45" s="27" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="27"/>
@@ -4657,16 +4657,16 @@
       <c r="AK45" s="59"/>
       <c r="AL45" s="60"/>
     </row>
-    <row r="46" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:38" ht="15" customHeight="1">
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="50"/>
       <c r="F46" s="47" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="27"/>
@@ -4696,26 +4696,26 @@
       <c r="AK46" s="59"/>
       <c r="AL46" s="60"/>
     </row>
-    <row r="47" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:38" ht="15" customHeight="1">
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="50"/>
       <c r="F47" s="47" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I47" s="27" t="s">
         <v>155</v>
       </c>
       <c r="J47" s="27"/>
       <c r="K47" s="27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O47" s="38"/>
       <c r="P47" s="39"/>
@@ -4741,32 +4741,32 @@
       <c r="AK47" s="62"/>
       <c r="AL47" s="63"/>
     </row>
-    <row r="48" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:38" ht="15" customHeight="1">
       <c r="B48" s="27" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="O48" s="38"/>
       <c r="P48" s="39"/>
@@ -4780,32 +4780,32 @@
       <c r="X48" s="39"/>
       <c r="Y48" s="40"/>
     </row>
-    <row r="49" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" ht="15" customHeight="1" thickBot="1">
       <c r="B49" s="28" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="66" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="O49" s="41"/>
       <c r="P49" s="42"/>
@@ -4819,37 +4819,37 @@
       <c r="X49" s="42"/>
       <c r="Y49" s="43"/>
     </row>
-    <row r="51" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="87"/>
-      <c r="V51" s="87"/>
-      <c r="W51" s="87"/>
-      <c r="X51" s="87"/>
-      <c r="Y51" s="87"/>
-      <c r="Z51" s="87"/>
-      <c r="AA51" s="88"/>
-    </row>
-    <row r="52" spans="2:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" ht="15" customHeight="1" thickBot="1">
+      <c r="B51" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="80"/>
+      <c r="AA51" s="81"/>
+    </row>
+    <row r="52" spans="2:27" ht="15" customHeight="1" thickTop="1">
       <c r="B52" s="68"/>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -4877,7 +4877,7 @@
       <c r="Z52" s="69"/>
       <c r="AA52" s="70"/>
     </row>
-    <row r="53" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" ht="15" customHeight="1">
       <c r="B53" s="68"/>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -4905,7 +4905,7 @@
       <c r="Z53" s="69"/>
       <c r="AA53" s="70"/>
     </row>
-    <row r="54" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" ht="15" customHeight="1">
       <c r="B54" s="68"/>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -4933,7 +4933,7 @@
       <c r="Z54" s="69"/>
       <c r="AA54" s="70"/>
     </row>
-    <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" ht="15" customHeight="1">
       <c r="B55" s="68"/>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
@@ -4961,7 +4961,7 @@
       <c r="Z55" s="69"/>
       <c r="AA55" s="70"/>
     </row>
-    <row r="56" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" ht="15" customHeight="1">
       <c r="B56" s="68"/>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
@@ -4989,7 +4989,7 @@
       <c r="Z56" s="69"/>
       <c r="AA56" s="70"/>
     </row>
-    <row r="57" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" ht="15" customHeight="1">
       <c r="B57" s="68"/>
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
@@ -5017,7 +5017,7 @@
       <c r="Z57" s="69"/>
       <c r="AA57" s="70"/>
     </row>
-    <row r="58" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" ht="15" customHeight="1">
       <c r="B58" s="68"/>
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
@@ -5045,7 +5045,7 @@
       <c r="Z58" s="69"/>
       <c r="AA58" s="70"/>
     </row>
-    <row r="59" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" ht="15" customHeight="1">
       <c r="B59" s="68"/>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -5073,7 +5073,7 @@
       <c r="Z59" s="69"/>
       <c r="AA59" s="70"/>
     </row>
-    <row r="60" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" ht="15" customHeight="1">
       <c r="B60" s="68"/>
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
@@ -5101,7 +5101,7 @@
       <c r="Z60" s="69"/>
       <c r="AA60" s="70"/>
     </row>
-    <row r="61" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" ht="15" customHeight="1">
       <c r="B61" s="68"/>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -5129,7 +5129,7 @@
       <c r="Z61" s="69"/>
       <c r="AA61" s="70"/>
     </row>
-    <row r="62" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" ht="15" customHeight="1">
       <c r="B62" s="68"/>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -5157,7 +5157,7 @@
       <c r="Z62" s="69"/>
       <c r="AA62" s="70"/>
     </row>
-    <row r="63" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" ht="15" customHeight="1">
       <c r="B63" s="68"/>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -5185,7 +5185,7 @@
       <c r="Z63" s="69"/>
       <c r="AA63" s="70"/>
     </row>
-    <row r="64" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" ht="15" customHeight="1">
       <c r="B64" s="68"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
@@ -5213,7 +5213,7 @@
       <c r="Z64" s="69"/>
       <c r="AA64" s="70"/>
     </row>
-    <row r="65" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" ht="15" customHeight="1">
       <c r="B65" s="68"/>
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
@@ -5241,7 +5241,7 @@
       <c r="Z65" s="69"/>
       <c r="AA65" s="70"/>
     </row>
-    <row r="66" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" ht="15" customHeight="1">
       <c r="B66" s="68"/>
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
@@ -5269,7 +5269,7 @@
       <c r="Z66" s="69"/>
       <c r="AA66" s="70"/>
     </row>
-    <row r="67" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" ht="15" customHeight="1">
       <c r="B67" s="68"/>
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
@@ -5297,7 +5297,7 @@
       <c r="Z67" s="69"/>
       <c r="AA67" s="70"/>
     </row>
-    <row r="68" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" ht="15" customHeight="1">
       <c r="B68" s="68"/>
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
@@ -5325,7 +5325,7 @@
       <c r="Z68" s="69"/>
       <c r="AA68" s="70"/>
     </row>
-    <row r="69" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" ht="15" customHeight="1">
       <c r="B69" s="68"/>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -5353,7 +5353,7 @@
       <c r="Z69" s="69"/>
       <c r="AA69" s="70"/>
     </row>
-    <row r="70" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" ht="15" customHeight="1">
       <c r="B70" s="68"/>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
@@ -5381,7 +5381,7 @@
       <c r="Z70" s="69"/>
       <c r="AA70" s="70"/>
     </row>
-    <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" ht="15" customHeight="1">
       <c r="B71" s="68"/>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
@@ -5409,7 +5409,7 @@
       <c r="Z71" s="69"/>
       <c r="AA71" s="70"/>
     </row>
-    <row r="72" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" ht="15" customHeight="1">
       <c r="B72" s="68"/>
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
@@ -5437,7 +5437,7 @@
       <c r="Z72" s="69"/>
       <c r="AA72" s="70"/>
     </row>
-    <row r="73" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" ht="15" customHeight="1">
       <c r="B73" s="68"/>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
@@ -5465,7 +5465,7 @@
       <c r="Z73" s="69"/>
       <c r="AA73" s="70"/>
     </row>
-    <row r="74" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" ht="15" customHeight="1">
       <c r="B74" s="68"/>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -5493,7 +5493,7 @@
       <c r="Z74" s="69"/>
       <c r="AA74" s="70"/>
     </row>
-    <row r="75" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" ht="15" customHeight="1">
       <c r="B75" s="68"/>
       <c r="C75" s="69"/>
       <c r="D75" s="69"/>
@@ -5521,7 +5521,7 @@
       <c r="Z75" s="69"/>
       <c r="AA75" s="70"/>
     </row>
-    <row r="76" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" ht="15" customHeight="1">
       <c r="B76" s="68"/>
       <c r="C76" s="69"/>
       <c r="D76" s="69"/>
@@ -5549,7 +5549,7 @@
       <c r="Z76" s="69"/>
       <c r="AA76" s="70"/>
     </row>
-    <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" ht="15" customHeight="1">
       <c r="B77" s="68"/>
       <c r="C77" s="69"/>
       <c r="D77" s="69"/>
@@ -5577,7 +5577,7 @@
       <c r="Z77" s="69"/>
       <c r="AA77" s="70"/>
     </row>
-    <row r="78" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" ht="15" customHeight="1">
       <c r="B78" s="68"/>
       <c r="C78" s="69"/>
       <c r="D78" s="69"/>
@@ -5605,7 +5605,7 @@
       <c r="Z78" s="69"/>
       <c r="AA78" s="70"/>
     </row>
-    <row r="79" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" ht="15" customHeight="1">
       <c r="B79" s="68"/>
       <c r="C79" s="69"/>
       <c r="D79" s="69"/>
@@ -5633,7 +5633,7 @@
       <c r="Z79" s="69"/>
       <c r="AA79" s="70"/>
     </row>
-    <row r="80" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" ht="15" customHeight="1">
       <c r="B80" s="68"/>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
@@ -5661,7 +5661,7 @@
       <c r="Z80" s="69"/>
       <c r="AA80" s="70"/>
     </row>
-    <row r="81" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" ht="15" customHeight="1">
       <c r="B81" s="68"/>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
@@ -5689,7 +5689,7 @@
       <c r="Z81" s="69"/>
       <c r="AA81" s="70"/>
     </row>
-    <row r="82" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" ht="15" customHeight="1">
       <c r="B82" s="68"/>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
@@ -5717,7 +5717,7 @@
       <c r="Z82" s="69"/>
       <c r="AA82" s="70"/>
     </row>
-    <row r="83" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" ht="15" customHeight="1">
       <c r="B83" s="68"/>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
@@ -5745,7 +5745,7 @@
       <c r="Z83" s="69"/>
       <c r="AA83" s="70"/>
     </row>
-    <row r="84" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:27" ht="15" customHeight="1">
       <c r="B84" s="68"/>
       <c r="C84" s="69"/>
       <c r="D84" s="69"/>
@@ -5773,7 +5773,7 @@
       <c r="Z84" s="69"/>
       <c r="AA84" s="70"/>
     </row>
-    <row r="85" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" ht="15" customHeight="1">
       <c r="B85" s="68"/>
       <c r="C85" s="69"/>
       <c r="D85" s="69"/>
@@ -5801,7 +5801,7 @@
       <c r="Z85" s="69"/>
       <c r="AA85" s="70"/>
     </row>
-    <row r="86" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" ht="15" customHeight="1">
       <c r="B86" s="68"/>
       <c r="C86" s="69"/>
       <c r="D86" s="69"/>
@@ -5829,7 +5829,7 @@
       <c r="Z86" s="69"/>
       <c r="AA86" s="70"/>
     </row>
-    <row r="87" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" ht="15" customHeight="1">
       <c r="B87" s="68"/>
       <c r="C87" s="69"/>
       <c r="D87" s="69"/>
@@ -5857,7 +5857,7 @@
       <c r="Z87" s="69"/>
       <c r="AA87" s="70"/>
     </row>
-    <row r="88" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27" ht="15" customHeight="1">
       <c r="B88" s="68"/>
       <c r="C88" s="69"/>
       <c r="D88" s="69"/>
@@ -5885,7 +5885,7 @@
       <c r="Z88" s="69"/>
       <c r="AA88" s="70"/>
     </row>
-    <row r="89" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27" ht="15" customHeight="1">
       <c r="B89" s="68"/>
       <c r="C89" s="69"/>
       <c r="D89" s="69"/>
@@ -5913,7 +5913,7 @@
       <c r="Z89" s="69"/>
       <c r="AA89" s="70"/>
     </row>
-    <row r="90" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" ht="15" customHeight="1">
       <c r="B90" s="68"/>
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
@@ -5941,7 +5941,7 @@
       <c r="Z90" s="69"/>
       <c r="AA90" s="70"/>
     </row>
-    <row r="91" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" ht="15" customHeight="1">
       <c r="B91" s="68"/>
       <c r="C91" s="69"/>
       <c r="D91" s="69"/>
@@ -5969,7 +5969,7 @@
       <c r="Z91" s="69"/>
       <c r="AA91" s="70"/>
     </row>
-    <row r="92" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" ht="15" customHeight="1">
       <c r="B92" s="68"/>
       <c r="C92" s="69"/>
       <c r="D92" s="69"/>
@@ -5997,7 +5997,7 @@
       <c r="Z92" s="69"/>
       <c r="AA92" s="70"/>
     </row>
-    <row r="93" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" ht="15" customHeight="1">
       <c r="B93" s="68"/>
       <c r="C93" s="69"/>
       <c r="D93" s="69"/>
@@ -6025,7 +6025,7 @@
       <c r="Z93" s="69"/>
       <c r="AA93" s="70"/>
     </row>
-    <row r="94" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" ht="15" customHeight="1">
       <c r="B94" s="68"/>
       <c r="C94" s="69"/>
       <c r="D94" s="69"/>
@@ -6053,7 +6053,7 @@
       <c r="Z94" s="69"/>
       <c r="AA94" s="70"/>
     </row>
-    <row r="95" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:27" ht="15" customHeight="1">
       <c r="B95" s="68"/>
       <c r="C95" s="69"/>
       <c r="D95" s="69"/>
@@ -6081,7 +6081,7 @@
       <c r="Z95" s="69"/>
       <c r="AA95" s="70"/>
     </row>
-    <row r="96" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:27" ht="15" customHeight="1">
       <c r="B96" s="68"/>
       <c r="C96" s="69"/>
       <c r="D96" s="69"/>
@@ -6109,7 +6109,7 @@
       <c r="Z96" s="69"/>
       <c r="AA96" s="70"/>
     </row>
-    <row r="97" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" ht="15" customHeight="1">
       <c r="B97" s="68"/>
       <c r="C97" s="69"/>
       <c r="D97" s="69"/>
@@ -6137,7 +6137,7 @@
       <c r="Z97" s="69"/>
       <c r="AA97" s="70"/>
     </row>
-    <row r="98" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" ht="15" customHeight="1">
       <c r="B98" s="68"/>
       <c r="C98" s="69"/>
       <c r="D98" s="69"/>
@@ -6165,7 +6165,7 @@
       <c r="Z98" s="69"/>
       <c r="AA98" s="70"/>
     </row>
-    <row r="99" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" ht="15" customHeight="1">
       <c r="B99" s="68"/>
       <c r="C99" s="69"/>
       <c r="D99" s="69"/>
@@ -6193,7 +6193,7 @@
       <c r="Z99" s="69"/>
       <c r="AA99" s="70"/>
     </row>
-    <row r="100" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" ht="15" customHeight="1">
       <c r="B100" s="68"/>
       <c r="C100" s="69"/>
       <c r="D100" s="69"/>
@@ -6221,7 +6221,7 @@
       <c r="Z100" s="69"/>
       <c r="AA100" s="70"/>
     </row>
-    <row r="101" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" ht="15" customHeight="1">
       <c r="B101" s="68"/>
       <c r="C101" s="69"/>
       <c r="D101" s="69"/>
@@ -6249,7 +6249,7 @@
       <c r="Z101" s="69"/>
       <c r="AA101" s="70"/>
     </row>
-    <row r="102" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" ht="15" customHeight="1">
       <c r="B102" s="68"/>
       <c r="C102" s="69"/>
       <c r="D102" s="69"/>
@@ -6277,7 +6277,7 @@
       <c r="Z102" s="69"/>
       <c r="AA102" s="70"/>
     </row>
-    <row r="103" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" ht="15" customHeight="1">
       <c r="B103" s="68"/>
       <c r="C103" s="69"/>
       <c r="D103" s="69"/>
@@ -6305,7 +6305,7 @@
       <c r="Z103" s="69"/>
       <c r="AA103" s="70"/>
     </row>
-    <row r="104" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" ht="15" customHeight="1">
       <c r="B104" s="68"/>
       <c r="C104" s="69"/>
       <c r="D104" s="69"/>
@@ -6333,7 +6333,7 @@
       <c r="Z104" s="69"/>
       <c r="AA104" s="70"/>
     </row>
-    <row r="105" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" ht="15" customHeight="1">
       <c r="B105" s="68"/>
       <c r="C105" s="69"/>
       <c r="D105" s="69"/>
@@ -6361,7 +6361,7 @@
       <c r="Z105" s="69"/>
       <c r="AA105" s="70"/>
     </row>
-    <row r="106" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" ht="15" customHeight="1">
       <c r="B106" s="68"/>
       <c r="C106" s="69"/>
       <c r="D106" s="69"/>
@@ -6389,7 +6389,7 @@
       <c r="Z106" s="69"/>
       <c r="AA106" s="70"/>
     </row>
-    <row r="107" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" ht="15" customHeight="1">
       <c r="B107" s="68"/>
       <c r="C107" s="69"/>
       <c r="D107" s="69"/>
@@ -6417,7 +6417,7 @@
       <c r="Z107" s="69"/>
       <c r="AA107" s="70"/>
     </row>
-    <row r="108" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" ht="15" customHeight="1">
       <c r="B108" s="68"/>
       <c r="C108" s="69"/>
       <c r="D108" s="69"/>
@@ -6445,7 +6445,7 @@
       <c r="Z108" s="69"/>
       <c r="AA108" s="70"/>
     </row>
-    <row r="109" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" ht="15" customHeight="1">
       <c r="B109" s="68"/>
       <c r="C109" s="69"/>
       <c r="D109" s="69"/>
@@ -6473,7 +6473,7 @@
       <c r="Z109" s="69"/>
       <c r="AA109" s="70"/>
     </row>
-    <row r="110" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" ht="15" customHeight="1">
       <c r="B110" s="68"/>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -6501,7 +6501,7 @@
       <c r="Z110" s="69"/>
       <c r="AA110" s="70"/>
     </row>
-    <row r="111" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" ht="15" customHeight="1">
       <c r="B111" s="68"/>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -6529,7 +6529,7 @@
       <c r="Z111" s="69"/>
       <c r="AA111" s="70"/>
     </row>
-    <row r="112" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" ht="15" customHeight="1">
       <c r="B112" s="68"/>
       <c r="C112" s="69"/>
       <c r="D112" s="69"/>
@@ -6557,7 +6557,7 @@
       <c r="Z112" s="69"/>
       <c r="AA112" s="70"/>
     </row>
-    <row r="113" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" ht="15" customHeight="1">
       <c r="B113" s="68"/>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -6585,7 +6585,7 @@
       <c r="Z113" s="69"/>
       <c r="AA113" s="70"/>
     </row>
-    <row r="114" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:27" ht="15" customHeight="1">
       <c r="B114" s="68"/>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>
@@ -6613,7 +6613,7 @@
       <c r="Z114" s="69"/>
       <c r="AA114" s="70"/>
     </row>
-    <row r="115" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27" ht="15" customHeight="1">
       <c r="B115" s="68"/>
       <c r="C115" s="69"/>
       <c r="D115" s="69"/>
@@ -6641,7 +6641,7 @@
       <c r="Z115" s="69"/>
       <c r="AA115" s="70"/>
     </row>
-    <row r="116" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27" ht="15" customHeight="1">
       <c r="B116" s="68"/>
       <c r="C116" s="69"/>
       <c r="D116" s="69"/>
@@ -6669,7 +6669,7 @@
       <c r="Z116" s="69"/>
       <c r="AA116" s="70"/>
     </row>
-    <row r="117" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27" ht="15" customHeight="1">
       <c r="B117" s="68"/>
       <c r="C117" s="69"/>
       <c r="D117" s="69"/>
@@ -6697,7 +6697,7 @@
       <c r="Z117" s="69"/>
       <c r="AA117" s="70"/>
     </row>
-    <row r="118" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:27" ht="15" customHeight="1">
       <c r="B118" s="68"/>
       <c r="C118" s="69"/>
       <c r="D118" s="69"/>
@@ -6725,7 +6725,7 @@
       <c r="Z118" s="69"/>
       <c r="AA118" s="70"/>
     </row>
-    <row r="119" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27" ht="15" customHeight="1">
       <c r="B119" s="68"/>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
@@ -6753,7 +6753,7 @@
       <c r="Z119" s="69"/>
       <c r="AA119" s="70"/>
     </row>
-    <row r="120" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27" ht="15" customHeight="1">
       <c r="B120" s="68"/>
       <c r="C120" s="69"/>
       <c r="D120" s="69"/>
@@ -6781,7 +6781,7 @@
       <c r="Z120" s="69"/>
       <c r="AA120" s="70"/>
     </row>
-    <row r="121" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27" ht="15" customHeight="1">
       <c r="B121" s="68"/>
       <c r="C121" s="69"/>
       <c r="D121" s="69"/>
@@ -6809,7 +6809,7 @@
       <c r="Z121" s="69"/>
       <c r="AA121" s="70"/>
     </row>
-    <row r="122" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27" ht="15" customHeight="1">
       <c r="B122" s="68"/>
       <c r="C122" s="69"/>
       <c r="D122" s="69"/>
@@ -6837,7 +6837,7 @@
       <c r="Z122" s="69"/>
       <c r="AA122" s="70"/>
     </row>
-    <row r="123" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27" ht="15" customHeight="1">
       <c r="B123" s="68"/>
       <c r="C123" s="69"/>
       <c r="D123" s="69"/>
@@ -6865,7 +6865,7 @@
       <c r="Z123" s="69"/>
       <c r="AA123" s="70"/>
     </row>
-    <row r="124" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27" ht="15" customHeight="1">
       <c r="B124" s="68"/>
       <c r="C124" s="69"/>
       <c r="D124" s="69"/>
@@ -6893,7 +6893,7 @@
       <c r="Z124" s="69"/>
       <c r="AA124" s="70"/>
     </row>
-    <row r="125" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27" ht="15" customHeight="1">
       <c r="B125" s="68"/>
       <c r="C125" s="69"/>
       <c r="D125" s="69"/>
@@ -6921,7 +6921,7 @@
       <c r="Z125" s="69"/>
       <c r="AA125" s="70"/>
     </row>
-    <row r="126" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" ht="15" customHeight="1">
       <c r="B126" s="68"/>
       <c r="C126" s="69"/>
       <c r="D126" s="69"/>
@@ -6949,7 +6949,7 @@
       <c r="Z126" s="69"/>
       <c r="AA126" s="70"/>
     </row>
-    <row r="127" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" ht="15" customHeight="1">
       <c r="B127" s="68"/>
       <c r="C127" s="69"/>
       <c r="D127" s="69"/>
@@ -6977,7 +6977,7 @@
       <c r="Z127" s="69"/>
       <c r="AA127" s="70"/>
     </row>
-    <row r="128" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27" ht="15" customHeight="1">
       <c r="B128" s="68"/>
       <c r="C128" s="69"/>
       <c r="D128" s="69"/>
@@ -7005,7 +7005,7 @@
       <c r="Z128" s="69"/>
       <c r="AA128" s="70"/>
     </row>
-    <row r="129" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:27" ht="15" customHeight="1">
       <c r="B129" s="68"/>
       <c r="C129" s="69"/>
       <c r="D129" s="69"/>
@@ -7033,7 +7033,7 @@
       <c r="Z129" s="69"/>
       <c r="AA129" s="70"/>
     </row>
-    <row r="130" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:27" ht="15" customHeight="1">
       <c r="B130" s="68"/>
       <c r="C130" s="69"/>
       <c r="D130" s="69"/>
@@ -7061,7 +7061,7 @@
       <c r="Z130" s="69"/>
       <c r="AA130" s="70"/>
     </row>
-    <row r="131" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:27" ht="15" customHeight="1">
       <c r="B131" s="68"/>
       <c r="C131" s="69"/>
       <c r="D131" s="69"/>
@@ -7089,7 +7089,7 @@
       <c r="Z131" s="69"/>
       <c r="AA131" s="70"/>
     </row>
-    <row r="132" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:27" ht="15" customHeight="1">
       <c r="B132" s="68"/>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
@@ -7117,7 +7117,7 @@
       <c r="Z132" s="69"/>
       <c r="AA132" s="70"/>
     </row>
-    <row r="133" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:27" ht="15" customHeight="1">
       <c r="B133" s="68"/>
       <c r="C133" s="69"/>
       <c r="D133" s="69"/>
@@ -7145,7 +7145,7 @@
       <c r="Z133" s="69"/>
       <c r="AA133" s="70"/>
     </row>
-    <row r="134" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:27" ht="15" customHeight="1">
       <c r="B134" s="68"/>
       <c r="C134" s="69"/>
       <c r="D134" s="69"/>
@@ -7173,7 +7173,7 @@
       <c r="Z134" s="69"/>
       <c r="AA134" s="70"/>
     </row>
-    <row r="135" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:27" ht="15" customHeight="1">
       <c r="B135" s="68"/>
       <c r="C135" s="69"/>
       <c r="D135" s="69"/>
@@ -7201,7 +7201,7 @@
       <c r="Z135" s="69"/>
       <c r="AA135" s="70"/>
     </row>
-    <row r="136" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:27" ht="15" customHeight="1">
       <c r="B136" s="68"/>
       <c r="C136" s="69"/>
       <c r="D136" s="69"/>
@@ -7229,7 +7229,7 @@
       <c r="Z136" s="69"/>
       <c r="AA136" s="70"/>
     </row>
-    <row r="137" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:27" ht="15" customHeight="1">
       <c r="B137" s="68"/>
       <c r="C137" s="69"/>
       <c r="D137" s="69"/>
@@ -7257,7 +7257,7 @@
       <c r="Z137" s="69"/>
       <c r="AA137" s="70"/>
     </row>
-    <row r="138" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:27" ht="15" customHeight="1">
       <c r="B138" s="68"/>
       <c r="C138" s="69"/>
       <c r="D138" s="69"/>
@@ -7285,7 +7285,7 @@
       <c r="Z138" s="69"/>
       <c r="AA138" s="70"/>
     </row>
-    <row r="139" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:27" ht="15" customHeight="1">
       <c r="B139" s="68"/>
       <c r="C139" s="69"/>
       <c r="D139" s="69"/>
@@ -7313,7 +7313,7 @@
       <c r="Z139" s="69"/>
       <c r="AA139" s="70"/>
     </row>
-    <row r="140" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:27" ht="15" customHeight="1">
       <c r="B140" s="68"/>
       <c r="C140" s="69"/>
       <c r="D140" s="69"/>
@@ -7341,7 +7341,7 @@
       <c r="Z140" s="69"/>
       <c r="AA140" s="70"/>
     </row>
-    <row r="141" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:27" ht="15" customHeight="1">
       <c r="B141" s="68"/>
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
@@ -7369,7 +7369,7 @@
       <c r="Z141" s="69"/>
       <c r="AA141" s="70"/>
     </row>
-    <row r="142" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:27" ht="15" customHeight="1">
       <c r="B142" s="68"/>
       <c r="C142" s="69"/>
       <c r="D142" s="69"/>
@@ -7397,7 +7397,7 @@
       <c r="Z142" s="69"/>
       <c r="AA142" s="70"/>
     </row>
-    <row r="143" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:27" ht="15" customHeight="1">
       <c r="B143" s="68"/>
       <c r="C143" s="69"/>
       <c r="D143" s="69"/>
@@ -7425,7 +7425,7 @@
       <c r="Z143" s="69"/>
       <c r="AA143" s="70"/>
     </row>
-    <row r="144" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:27" ht="15" customHeight="1">
       <c r="B144" s="68"/>
       <c r="C144" s="69"/>
       <c r="D144" s="69"/>
@@ -7453,7 +7453,7 @@
       <c r="Z144" s="69"/>
       <c r="AA144" s="70"/>
     </row>
-    <row r="145" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27" ht="15" customHeight="1">
       <c r="B145" s="68"/>
       <c r="C145" s="69"/>
       <c r="D145" s="69"/>
@@ -7481,7 +7481,7 @@
       <c r="Z145" s="69"/>
       <c r="AA145" s="70"/>
     </row>
-    <row r="146" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27" ht="15" customHeight="1">
       <c r="B146" s="68"/>
       <c r="C146" s="69"/>
       <c r="D146" s="69"/>
@@ -7509,7 +7509,7 @@
       <c r="Z146" s="69"/>
       <c r="AA146" s="70"/>
     </row>
-    <row r="147" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27" ht="15" customHeight="1">
       <c r="B147" s="68"/>
       <c r="C147" s="69"/>
       <c r="D147" s="69"/>
@@ -7537,7 +7537,7 @@
       <c r="Z147" s="69"/>
       <c r="AA147" s="70"/>
     </row>
-    <row r="148" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27" ht="15" customHeight="1">
       <c r="B148" s="68"/>
       <c r="C148" s="69"/>
       <c r="D148" s="69"/>
@@ -7565,7 +7565,7 @@
       <c r="Z148" s="69"/>
       <c r="AA148" s="70"/>
     </row>
-    <row r="149" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27" ht="15" customHeight="1">
       <c r="B149" s="68"/>
       <c r="C149" s="69"/>
       <c r="D149" s="69"/>
@@ -7593,7 +7593,7 @@
       <c r="Z149" s="69"/>
       <c r="AA149" s="70"/>
     </row>
-    <row r="150" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27" ht="15" customHeight="1">
       <c r="B150" s="68"/>
       <c r="C150" s="69"/>
       <c r="D150" s="69"/>
@@ -7621,7 +7621,7 @@
       <c r="Z150" s="69"/>
       <c r="AA150" s="70"/>
     </row>
-    <row r="151" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27" ht="15" customHeight="1">
       <c r="B151" s="68"/>
       <c r="C151" s="69"/>
       <c r="D151" s="69"/>
@@ -7649,7 +7649,7 @@
       <c r="Z151" s="69"/>
       <c r="AA151" s="70"/>
     </row>
-    <row r="152" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27" ht="15" customHeight="1">
       <c r="B152" s="68"/>
       <c r="C152" s="69"/>
       <c r="D152" s="69"/>
@@ -7677,7 +7677,7 @@
       <c r="Z152" s="69"/>
       <c r="AA152" s="70"/>
     </row>
-    <row r="153" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27" ht="15" customHeight="1">
       <c r="B153" s="68"/>
       <c r="C153" s="69"/>
       <c r="D153" s="69"/>
@@ -7705,7 +7705,7 @@
       <c r="Z153" s="69"/>
       <c r="AA153" s="70"/>
     </row>
-    <row r="154" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27" ht="15" customHeight="1">
       <c r="B154" s="68"/>
       <c r="C154" s="69"/>
       <c r="D154" s="69"/>
@@ -7733,7 +7733,7 @@
       <c r="Z154" s="69"/>
       <c r="AA154" s="70"/>
     </row>
-    <row r="155" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27" ht="15" customHeight="1">
       <c r="B155" s="68"/>
       <c r="C155" s="69"/>
       <c r="D155" s="69"/>
@@ -7761,7 +7761,7 @@
       <c r="Z155" s="69"/>
       <c r="AA155" s="70"/>
     </row>
-    <row r="156" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:27" ht="15" customHeight="1">
       <c r="B156" s="68"/>
       <c r="C156" s="69"/>
       <c r="D156" s="69"/>
@@ -7789,7 +7789,7 @@
       <c r="Z156" s="69"/>
       <c r="AA156" s="70"/>
     </row>
-    <row r="157" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:27" ht="15" customHeight="1">
       <c r="B157" s="68"/>
       <c r="C157" s="69"/>
       <c r="D157" s="69"/>
@@ -7817,7 +7817,7 @@
       <c r="Z157" s="69"/>
       <c r="AA157" s="70"/>
     </row>
-    <row r="158" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:27" ht="15" customHeight="1">
       <c r="B158" s="71"/>
       <c r="C158" s="72"/>
       <c r="D158" s="72"/>
@@ -7959,7 +7959,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -7970,247 +7970,247 @@
     <col min="9" max="9" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="16.5" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15.75">
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6">
         <v>163</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75">
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7">
         <f>149 - 8</f>
         <v>141</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75">
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7">
         <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75">
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C6" s="13">
         <f>(22*38*44*26*30)/(10*11*11*22*9)</f>
         <v>119.75757575757575</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75">
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C7" s="7">
         <f>12</f>
         <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75">
       <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="C8" s="7">
         <v>4.5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75">
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="C9" s="7">
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75">
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="C10" s="7">
         <v>150</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75">
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="C11" s="13">
         <f>2*PI()/60 * C5/1000 * C10</f>
         <v>0.5497787143782138</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C16">
         <f>C6*C7</f>
         <v>1437.090909090909</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="G16">
         <f>150/60*1/4.5*0.07*PI()</f>
         <v>0.12217304763960309</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1">
       <c r="E17" s="16" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <f>2*PI()/C16</f>
         <v>4.3721557679007751E-3</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="F18" s="14">
         <v>4.5</v>
@@ -8220,22 +8220,22 @@
         <v>0.54977871437821391</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="C19">
         <f>C18*C5</f>
         <v>0.15302545187652714</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="F19" s="2">
         <v>7.2</v>
@@ -8245,16 +8245,16 @@
         <v>0.87964594300514221</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="I19" s="17">
         <f>(G20-G19)/G19</f>
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="E20" s="2" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="F20" s="2">
         <v>9</v>
@@ -8264,7 +8264,7 @@
         <v>1.0995574287564278</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Romi Pins.xlsx
+++ b/Romi Pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/clbonney_calpoly_edu/Documents/ME 405 Mechatronics Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/clbonney_calpoly_edu/Documents/ME 405 Mechatronics Lab/ME405-Mechatronics-Romi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2047" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2000FD7-797D-4ED3-972A-8EF1B7EFDC5C}"/>
+  <xr:revisionPtr revIDLastSave="2052" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BED8FB-D14D-4848-A900-B4A0927756E0}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2EB5B3E0-4CA6-4DEA-8D58-C3FD12820291}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{2EB5B3E0-4CA6-4DEA-8D58-C3FD12820291}"/>
   </bookViews>
   <sheets>
     <sheet name="Nucleo_Pinout_Table" sheetId="5" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,7 +1478,128 @@
       </font>
       <fill>
         <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1611,127 +1732,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1938,8 +1938,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20040600" y="1514475"/>
-          <a:ext cx="6630544" cy="1600287"/>
+          <a:off x="22883567" y="1520054"/>
+          <a:ext cx="7557883" cy="1607461"/>
           <a:chOff x="11820145" y="6660710"/>
           <a:chExt cx="6630544" cy="1835997"/>
         </a:xfrm>
@@ -2369,6 +2369,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>540894</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03AE6B7-5B8D-924C-8CD6-73E2B8EB41B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32403803" y="1243445"/>
+          <a:ext cx="7512589" cy="1829845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2705,35 +2749,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0FF3C0-CECB-2D4C-9343-7B8484A1E447}">
   <dimension ref="B2:AL158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="AM4" zoomScale="239" workbookViewId="0">
+      <selection activeCell="AV21" sqref="AV21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="18" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="18"/>
+    <col min="11" max="11" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" ht="15" customHeight="1">
+    <row r="2" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="76"/>
     </row>
-    <row r="3" spans="2:38" ht="15" customHeight="1">
+    <row r="3" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
@@ -2742,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:38" ht="15" customHeight="1">
+    <row r="4" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>2</v>
@@ -2751,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:38" ht="15" customHeight="1">
+    <row r="5" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>3</v>
@@ -2760,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:38" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="82" t="s">
         <v>4</v>
       </c>
@@ -2803,7 +2847,7 @@
       <c r="AK7" s="87"/>
       <c r="AL7" s="88"/>
     </row>
-    <row r="8" spans="2:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="2:38" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2905,7 @@
       <c r="AK8" s="59"/>
       <c r="AL8" s="60"/>
     </row>
-    <row r="9" spans="2:38" ht="15" customHeight="1">
+    <row r="9" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
@@ -2915,7 +2959,7 @@
       <c r="AK9" s="59"/>
       <c r="AL9" s="60"/>
     </row>
-    <row r="10" spans="2:38" ht="15" customHeight="1">
+    <row r="10" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
@@ -2973,7 +3017,7 @@
       <c r="AK10" s="59"/>
       <c r="AL10" s="60"/>
     </row>
-    <row r="11" spans="2:38" ht="15" customHeight="1">
+    <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3021,7 +3065,7 @@
       <c r="AK11" s="59"/>
       <c r="AL11" s="60"/>
     </row>
-    <row r="12" spans="2:38" ht="15" customHeight="1">
+    <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -3069,7 +3113,7 @@
       <c r="AK12" s="59"/>
       <c r="AL12" s="60"/>
     </row>
-    <row r="13" spans="2:38" ht="15" customHeight="1">
+    <row r="13" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>41</v>
       </c>
@@ -3127,7 +3171,7 @@
       <c r="AK13" s="59"/>
       <c r="AL13" s="60"/>
     </row>
-    <row r="14" spans="2:38" ht="15" customHeight="1">
+    <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>41</v>
       </c>
@@ -3177,7 +3221,7 @@
       <c r="AK14" s="59"/>
       <c r="AL14" s="60"/>
     </row>
-    <row r="15" spans="2:38" ht="15" customHeight="1">
+    <row r="15" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>46</v>
       </c>
@@ -3223,7 +3267,7 @@
       <c r="AK15" s="59"/>
       <c r="AL15" s="60"/>
     </row>
-    <row r="16" spans="2:38" ht="15" customHeight="1">
+    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>46</v>
       </c>
@@ -3275,7 +3319,7 @@
       <c r="AK16" s="62"/>
       <c r="AL16" s="63"/>
     </row>
-    <row r="17" spans="2:38" ht="15" customHeight="1">
+    <row r="17" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>31</v>
       </c>
@@ -3319,7 +3363,7 @@
       <c r="X17" s="39"/>
       <c r="Y17" s="40"/>
     </row>
-    <row r="18" spans="2:38" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3369,7 +3413,7 @@
       <c r="AK18" s="87"/>
       <c r="AL18" s="88"/>
     </row>
-    <row r="19" spans="2:38" ht="15" customHeight="1" thickTop="1">
+    <row r="19" spans="2:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
         <v>30</v>
       </c>
@@ -3427,7 +3471,7 @@
       <c r="AK19" s="59"/>
       <c r="AL19" s="60"/>
     </row>
-    <row r="20" spans="2:38" ht="15" customHeight="1">
+    <row r="20" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
@@ -3483,7 +3527,7 @@
       <c r="AK20" s="59"/>
       <c r="AL20" s="60"/>
     </row>
-    <row r="21" spans="2:38" ht="15" customHeight="1">
+    <row r="21" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>46</v>
       </c>
@@ -3537,7 +3581,7 @@
       <c r="AK21" s="59"/>
       <c r="AL21" s="60"/>
     </row>
-    <row r="22" spans="2:38" ht="15" customHeight="1">
+    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>46</v>
       </c>
@@ -3588,7 +3632,7 @@
       <c r="AK22" s="59"/>
       <c r="AL22" s="60"/>
     </row>
-    <row r="23" spans="2:38" ht="15" customHeight="1">
+    <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>50</v>
       </c>
@@ -3641,7 +3685,7 @@
       <c r="AK23" s="59"/>
       <c r="AL23" s="60"/>
     </row>
-    <row r="24" spans="2:38" ht="15" customHeight="1">
+    <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>61</v>
       </c>
@@ -3692,7 +3736,7 @@
       <c r="AK24" s="59"/>
       <c r="AL24" s="60"/>
     </row>
-    <row r="25" spans="2:38" ht="15" customHeight="1">
+    <row r="25" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3737,7 +3781,7 @@
       <c r="AK25" s="59"/>
       <c r="AL25" s="60"/>
     </row>
-    <row r="26" spans="2:38" ht="15" customHeight="1">
+    <row r="26" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3784,7 +3828,7 @@
       <c r="AK26" s="59"/>
       <c r="AL26" s="60"/>
     </row>
-    <row r="27" spans="2:38" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>55</v>
       </c>
@@ -3837,7 +3881,7 @@
       <c r="AK27" s="59"/>
       <c r="AL27" s="60"/>
     </row>
-    <row r="28" spans="2:38" ht="15" customHeight="1">
+    <row r="28" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O28" s="38"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -3862,7 +3906,7 @@
       <c r="AK28" s="59"/>
       <c r="AL28" s="60"/>
     </row>
-    <row r="29" spans="2:38" ht="15" customHeight="1">
+    <row r="29" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="82" t="s">
         <v>103</v>
       </c>
@@ -3901,7 +3945,7 @@
       <c r="AK29" s="59"/>
       <c r="AL29" s="60"/>
     </row>
-    <row r="30" spans="2:38" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="2:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36" t="s">
         <v>8</v>
       </c>
@@ -3956,7 +4000,7 @@
       <c r="AK30" s="59"/>
       <c r="AL30" s="60"/>
     </row>
-    <row r="31" spans="2:38" ht="15" customHeight="1">
+    <row r="31" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
         <v>20</v>
       </c>
@@ -4001,7 +4045,7 @@
       <c r="AK31" s="59"/>
       <c r="AL31" s="60"/>
     </row>
-    <row r="32" spans="2:38" ht="15" customHeight="1">
+    <row r="32" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27" t="s">
         <v>14</v>
       </c>
@@ -4046,7 +4090,7 @@
       <c r="AK32" s="59"/>
       <c r="AL32" s="60"/>
     </row>
-    <row r="33" spans="2:38" ht="15" customHeight="1">
+    <row r="33" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -4091,7 +4135,7 @@
       <c r="AK33" s="59"/>
       <c r="AL33" s="60"/>
     </row>
-    <row r="34" spans="2:38" ht="15" customHeight="1">
+    <row r="34" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4130,7 +4174,7 @@
       <c r="AK34" s="59"/>
       <c r="AL34" s="60"/>
     </row>
-    <row r="35" spans="2:38" ht="15" customHeight="1">
+    <row r="35" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4177,7 +4221,7 @@
       <c r="AK35" s="59"/>
       <c r="AL35" s="60"/>
     </row>
-    <row r="36" spans="2:38" ht="15" customHeight="1">
+    <row r="36" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>46</v>
       </c>
@@ -4226,7 +4270,7 @@
       <c r="AK36" s="59"/>
       <c r="AL36" s="60"/>
     </row>
-    <row r="37" spans="2:38" ht="15" customHeight="1">
+    <row r="37" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4319,7 @@
       <c r="AK37" s="59"/>
       <c r="AL37" s="60"/>
     </row>
-    <row r="38" spans="2:38" ht="15" customHeight="1">
+    <row r="38" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="27" t="s">
         <v>61</v>
       </c>
@@ -4320,7 +4364,7 @@
       <c r="AK38" s="59"/>
       <c r="AL38" s="60"/>
     </row>
-    <row r="39" spans="2:38" ht="15" customHeight="1">
+    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="27" t="s">
         <v>30</v>
       </c>
@@ -4373,7 +4417,7 @@
       <c r="AK39" s="59"/>
       <c r="AL39" s="60"/>
     </row>
-    <row r="40" spans="2:38" ht="15" customHeight="1">
+    <row r="40" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27" t="s">
         <v>31</v>
       </c>
@@ -4424,7 +4468,7 @@
       <c r="AK40" s="59"/>
       <c r="AL40" s="60"/>
     </row>
-    <row r="41" spans="2:38" ht="15" customHeight="1">
+    <row r="41" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="27" t="s">
         <v>46</v>
       </c>
@@ -4473,7 +4517,7 @@
       <c r="AK41" s="59"/>
       <c r="AL41" s="60"/>
     </row>
-    <row r="42" spans="2:38" ht="15" customHeight="1">
+    <row r="42" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4518,7 +4562,7 @@
       <c r="AK42" s="59"/>
       <c r="AL42" s="60"/>
     </row>
-    <row r="43" spans="2:38" ht="15" customHeight="1">
+    <row r="43" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="27" t="s">
         <v>37</v>
       </c>
@@ -4563,7 +4607,7 @@
       <c r="AK43" s="59"/>
       <c r="AL43" s="60"/>
     </row>
-    <row r="44" spans="2:38" ht="15" customHeight="1">
+    <row r="44" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="27" t="s">
         <v>61</v>
       </c>
@@ -4610,7 +4654,7 @@
       <c r="AK44" s="59"/>
       <c r="AL44" s="60"/>
     </row>
-    <row r="45" spans="2:38" ht="15" customHeight="1">
+    <row r="45" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="27" t="s">
         <v>50</v>
       </c>
@@ -4657,7 +4701,7 @@
       <c r="AK45" s="59"/>
       <c r="AL45" s="60"/>
     </row>
-    <row r="46" spans="2:38" ht="15" customHeight="1">
+    <row r="46" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4696,7 +4740,7 @@
       <c r="AK46" s="59"/>
       <c r="AL46" s="60"/>
     </row>
-    <row r="47" spans="2:38" ht="15" customHeight="1">
+    <row r="47" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4741,7 +4785,7 @@
       <c r="AK47" s="62"/>
       <c r="AL47" s="63"/>
     </row>
-    <row r="48" spans="2:38" ht="15" customHeight="1">
+    <row r="48" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="27" t="s">
         <v>46</v>
       </c>
@@ -4780,7 +4824,7 @@
       <c r="X48" s="39"/>
       <c r="Y48" s="40"/>
     </row>
-    <row r="49" spans="2:27" ht="15" customHeight="1" thickBot="1">
+    <row r="49" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="28" t="s">
         <v>46</v>
       </c>
@@ -4819,7 +4863,7 @@
       <c r="X49" s="42"/>
       <c r="Y49" s="43"/>
     </row>
-    <row r="51" spans="2:27" ht="15" customHeight="1" thickBot="1">
+    <row r="51" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="79" t="s">
         <v>158</v>
       </c>
@@ -4849,7 +4893,7 @@
       <c r="Z51" s="80"/>
       <c r="AA51" s="81"/>
     </row>
-    <row r="52" spans="2:27" ht="15" customHeight="1" thickTop="1">
+    <row r="52" spans="2:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B52" s="68"/>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -4877,7 +4921,7 @@
       <c r="Z52" s="69"/>
       <c r="AA52" s="70"/>
     </row>
-    <row r="53" spans="2:27" ht="15" customHeight="1">
+    <row r="53" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="68"/>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -4905,7 +4949,7 @@
       <c r="Z53" s="69"/>
       <c r="AA53" s="70"/>
     </row>
-    <row r="54" spans="2:27" ht="15" customHeight="1">
+    <row r="54" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="68"/>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -4933,7 +4977,7 @@
       <c r="Z54" s="69"/>
       <c r="AA54" s="70"/>
     </row>
-    <row r="55" spans="2:27" ht="15" customHeight="1">
+    <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="68"/>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
@@ -4961,7 +5005,7 @@
       <c r="Z55" s="69"/>
       <c r="AA55" s="70"/>
     </row>
-    <row r="56" spans="2:27" ht="15" customHeight="1">
+    <row r="56" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="68"/>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
@@ -4989,7 +5033,7 @@
       <c r="Z56" s="69"/>
       <c r="AA56" s="70"/>
     </row>
-    <row r="57" spans="2:27" ht="15" customHeight="1">
+    <row r="57" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="68"/>
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
@@ -5017,7 +5061,7 @@
       <c r="Z57" s="69"/>
       <c r="AA57" s="70"/>
     </row>
-    <row r="58" spans="2:27" ht="15" customHeight="1">
+    <row r="58" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="68"/>
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
@@ -5045,7 +5089,7 @@
       <c r="Z58" s="69"/>
       <c r="AA58" s="70"/>
     </row>
-    <row r="59" spans="2:27" ht="15" customHeight="1">
+    <row r="59" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="68"/>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -5073,7 +5117,7 @@
       <c r="Z59" s="69"/>
       <c r="AA59" s="70"/>
     </row>
-    <row r="60" spans="2:27" ht="15" customHeight="1">
+    <row r="60" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="68"/>
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
@@ -5101,7 +5145,7 @@
       <c r="Z60" s="69"/>
       <c r="AA60" s="70"/>
     </row>
-    <row r="61" spans="2:27" ht="15" customHeight="1">
+    <row r="61" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="68"/>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -5129,7 +5173,7 @@
       <c r="Z61" s="69"/>
       <c r="AA61" s="70"/>
     </row>
-    <row r="62" spans="2:27" ht="15" customHeight="1">
+    <row r="62" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="68"/>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -5157,7 +5201,7 @@
       <c r="Z62" s="69"/>
       <c r="AA62" s="70"/>
     </row>
-    <row r="63" spans="2:27" ht="15" customHeight="1">
+    <row r="63" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="68"/>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -5185,7 +5229,7 @@
       <c r="Z63" s="69"/>
       <c r="AA63" s="70"/>
     </row>
-    <row r="64" spans="2:27" ht="15" customHeight="1">
+    <row r="64" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="68"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
@@ -5213,7 +5257,7 @@
       <c r="Z64" s="69"/>
       <c r="AA64" s="70"/>
     </row>
-    <row r="65" spans="2:27" ht="15" customHeight="1">
+    <row r="65" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="68"/>
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
@@ -5241,7 +5285,7 @@
       <c r="Z65" s="69"/>
       <c r="AA65" s="70"/>
     </row>
-    <row r="66" spans="2:27" ht="15" customHeight="1">
+    <row r="66" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="68"/>
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
@@ -5269,7 +5313,7 @@
       <c r="Z66" s="69"/>
       <c r="AA66" s="70"/>
     </row>
-    <row r="67" spans="2:27" ht="15" customHeight="1">
+    <row r="67" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="68"/>
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
@@ -5297,7 +5341,7 @@
       <c r="Z67" s="69"/>
       <c r="AA67" s="70"/>
     </row>
-    <row r="68" spans="2:27" ht="15" customHeight="1">
+    <row r="68" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="68"/>
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
@@ -5325,7 +5369,7 @@
       <c r="Z68" s="69"/>
       <c r="AA68" s="70"/>
     </row>
-    <row r="69" spans="2:27" ht="15" customHeight="1">
+    <row r="69" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="68"/>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -5353,7 +5397,7 @@
       <c r="Z69" s="69"/>
       <c r="AA69" s="70"/>
     </row>
-    <row r="70" spans="2:27" ht="15" customHeight="1">
+    <row r="70" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="68"/>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
@@ -5381,7 +5425,7 @@
       <c r="Z70" s="69"/>
       <c r="AA70" s="70"/>
     </row>
-    <row r="71" spans="2:27" ht="15" customHeight="1">
+    <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="68"/>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
@@ -5409,7 +5453,7 @@
       <c r="Z71" s="69"/>
       <c r="AA71" s="70"/>
     </row>
-    <row r="72" spans="2:27" ht="15" customHeight="1">
+    <row r="72" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="68"/>
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
@@ -5437,7 +5481,7 @@
       <c r="Z72" s="69"/>
       <c r="AA72" s="70"/>
     </row>
-    <row r="73" spans="2:27" ht="15" customHeight="1">
+    <row r="73" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="68"/>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
@@ -5465,7 +5509,7 @@
       <c r="Z73" s="69"/>
       <c r="AA73" s="70"/>
     </row>
-    <row r="74" spans="2:27" ht="15" customHeight="1">
+    <row r="74" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="68"/>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -5493,7 +5537,7 @@
       <c r="Z74" s="69"/>
       <c r="AA74" s="70"/>
     </row>
-    <row r="75" spans="2:27" ht="15" customHeight="1">
+    <row r="75" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="68"/>
       <c r="C75" s="69"/>
       <c r="D75" s="69"/>
@@ -5521,7 +5565,7 @@
       <c r="Z75" s="69"/>
       <c r="AA75" s="70"/>
     </row>
-    <row r="76" spans="2:27" ht="15" customHeight="1">
+    <row r="76" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="68"/>
       <c r="C76" s="69"/>
       <c r="D76" s="69"/>
@@ -5549,7 +5593,7 @@
       <c r="Z76" s="69"/>
       <c r="AA76" s="70"/>
     </row>
-    <row r="77" spans="2:27" ht="15" customHeight="1">
+    <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="68"/>
       <c r="C77" s="69"/>
       <c r="D77" s="69"/>
@@ -5577,7 +5621,7 @@
       <c r="Z77" s="69"/>
       <c r="AA77" s="70"/>
     </row>
-    <row r="78" spans="2:27" ht="15" customHeight="1">
+    <row r="78" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="68"/>
       <c r="C78" s="69"/>
       <c r="D78" s="69"/>
@@ -5605,7 +5649,7 @@
       <c r="Z78" s="69"/>
       <c r="AA78" s="70"/>
     </row>
-    <row r="79" spans="2:27" ht="15" customHeight="1">
+    <row r="79" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="68"/>
       <c r="C79" s="69"/>
       <c r="D79" s="69"/>
@@ -5633,7 +5677,7 @@
       <c r="Z79" s="69"/>
       <c r="AA79" s="70"/>
     </row>
-    <row r="80" spans="2:27" ht="15" customHeight="1">
+    <row r="80" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="68"/>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
@@ -5661,7 +5705,7 @@
       <c r="Z80" s="69"/>
       <c r="AA80" s="70"/>
     </row>
-    <row r="81" spans="2:27" ht="15" customHeight="1">
+    <row r="81" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="68"/>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
@@ -5689,7 +5733,7 @@
       <c r="Z81" s="69"/>
       <c r="AA81" s="70"/>
     </row>
-    <row r="82" spans="2:27" ht="15" customHeight="1">
+    <row r="82" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="68"/>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
@@ -5717,7 +5761,7 @@
       <c r="Z82" s="69"/>
       <c r="AA82" s="70"/>
     </row>
-    <row r="83" spans="2:27" ht="15" customHeight="1">
+    <row r="83" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="68"/>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
@@ -5745,7 +5789,7 @@
       <c r="Z83" s="69"/>
       <c r="AA83" s="70"/>
     </row>
-    <row r="84" spans="2:27" ht="15" customHeight="1">
+    <row r="84" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="68"/>
       <c r="C84" s="69"/>
       <c r="D84" s="69"/>
@@ -5773,7 +5817,7 @@
       <c r="Z84" s="69"/>
       <c r="AA84" s="70"/>
     </row>
-    <row r="85" spans="2:27" ht="15" customHeight="1">
+    <row r="85" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="68"/>
       <c r="C85" s="69"/>
       <c r="D85" s="69"/>
@@ -5801,7 +5845,7 @@
       <c r="Z85" s="69"/>
       <c r="AA85" s="70"/>
     </row>
-    <row r="86" spans="2:27" ht="15" customHeight="1">
+    <row r="86" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="68"/>
       <c r="C86" s="69"/>
       <c r="D86" s="69"/>
@@ -5829,7 +5873,7 @@
       <c r="Z86" s="69"/>
       <c r="AA86" s="70"/>
     </row>
-    <row r="87" spans="2:27" ht="15" customHeight="1">
+    <row r="87" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="68"/>
       <c r="C87" s="69"/>
       <c r="D87" s="69"/>
@@ -5857,7 +5901,7 @@
       <c r="Z87" s="69"/>
       <c r="AA87" s="70"/>
     </row>
-    <row r="88" spans="2:27" ht="15" customHeight="1">
+    <row r="88" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="68"/>
       <c r="C88" s="69"/>
       <c r="D88" s="69"/>
@@ -5885,7 +5929,7 @@
       <c r="Z88" s="69"/>
       <c r="AA88" s="70"/>
     </row>
-    <row r="89" spans="2:27" ht="15" customHeight="1">
+    <row r="89" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="68"/>
       <c r="C89" s="69"/>
       <c r="D89" s="69"/>
@@ -5913,7 +5957,7 @@
       <c r="Z89" s="69"/>
       <c r="AA89" s="70"/>
     </row>
-    <row r="90" spans="2:27" ht="15" customHeight="1">
+    <row r="90" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="68"/>
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
@@ -5941,7 +5985,7 @@
       <c r="Z90" s="69"/>
       <c r="AA90" s="70"/>
     </row>
-    <row r="91" spans="2:27" ht="15" customHeight="1">
+    <row r="91" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="68"/>
       <c r="C91" s="69"/>
       <c r="D91" s="69"/>
@@ -5969,7 +6013,7 @@
       <c r="Z91" s="69"/>
       <c r="AA91" s="70"/>
     </row>
-    <row r="92" spans="2:27" ht="15" customHeight="1">
+    <row r="92" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="68"/>
       <c r="C92" s="69"/>
       <c r="D92" s="69"/>
@@ -5997,7 +6041,7 @@
       <c r="Z92" s="69"/>
       <c r="AA92" s="70"/>
     </row>
-    <row r="93" spans="2:27" ht="15" customHeight="1">
+    <row r="93" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="68"/>
       <c r="C93" s="69"/>
       <c r="D93" s="69"/>
@@ -6025,7 +6069,7 @@
       <c r="Z93" s="69"/>
       <c r="AA93" s="70"/>
     </row>
-    <row r="94" spans="2:27" ht="15" customHeight="1">
+    <row r="94" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="68"/>
       <c r="C94" s="69"/>
       <c r="D94" s="69"/>
@@ -6053,7 +6097,7 @@
       <c r="Z94" s="69"/>
       <c r="AA94" s="70"/>
     </row>
-    <row r="95" spans="2:27" ht="15" customHeight="1">
+    <row r="95" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="68"/>
       <c r="C95" s="69"/>
       <c r="D95" s="69"/>
@@ -6081,7 +6125,7 @@
       <c r="Z95" s="69"/>
       <c r="AA95" s="70"/>
     </row>
-    <row r="96" spans="2:27" ht="15" customHeight="1">
+    <row r="96" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="68"/>
       <c r="C96" s="69"/>
       <c r="D96" s="69"/>
@@ -6109,7 +6153,7 @@
       <c r="Z96" s="69"/>
       <c r="AA96" s="70"/>
     </row>
-    <row r="97" spans="2:27" ht="15" customHeight="1">
+    <row r="97" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="68"/>
       <c r="C97" s="69"/>
       <c r="D97" s="69"/>
@@ -6137,7 +6181,7 @@
       <c r="Z97" s="69"/>
       <c r="AA97" s="70"/>
     </row>
-    <row r="98" spans="2:27" ht="15" customHeight="1">
+    <row r="98" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="68"/>
       <c r="C98" s="69"/>
       <c r="D98" s="69"/>
@@ -6165,7 +6209,7 @@
       <c r="Z98" s="69"/>
       <c r="AA98" s="70"/>
     </row>
-    <row r="99" spans="2:27" ht="15" customHeight="1">
+    <row r="99" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="68"/>
       <c r="C99" s="69"/>
       <c r="D99" s="69"/>
@@ -6193,7 +6237,7 @@
       <c r="Z99" s="69"/>
       <c r="AA99" s="70"/>
     </row>
-    <row r="100" spans="2:27" ht="15" customHeight="1">
+    <row r="100" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="68"/>
       <c r="C100" s="69"/>
       <c r="D100" s="69"/>
@@ -6221,7 +6265,7 @@
       <c r="Z100" s="69"/>
       <c r="AA100" s="70"/>
     </row>
-    <row r="101" spans="2:27" ht="15" customHeight="1">
+    <row r="101" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="68"/>
       <c r="C101" s="69"/>
       <c r="D101" s="69"/>
@@ -6249,7 +6293,7 @@
       <c r="Z101" s="69"/>
       <c r="AA101" s="70"/>
     </row>
-    <row r="102" spans="2:27" ht="15" customHeight="1">
+    <row r="102" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="68"/>
       <c r="C102" s="69"/>
       <c r="D102" s="69"/>
@@ -6277,7 +6321,7 @@
       <c r="Z102" s="69"/>
       <c r="AA102" s="70"/>
     </row>
-    <row r="103" spans="2:27" ht="15" customHeight="1">
+    <row r="103" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="68"/>
       <c r="C103" s="69"/>
       <c r="D103" s="69"/>
@@ -6305,7 +6349,7 @@
       <c r="Z103" s="69"/>
       <c r="AA103" s="70"/>
     </row>
-    <row r="104" spans="2:27" ht="15" customHeight="1">
+    <row r="104" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="68"/>
       <c r="C104" s="69"/>
       <c r="D104" s="69"/>
@@ -6333,7 +6377,7 @@
       <c r="Z104" s="69"/>
       <c r="AA104" s="70"/>
     </row>
-    <row r="105" spans="2:27" ht="15" customHeight="1">
+    <row r="105" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="68"/>
       <c r="C105" s="69"/>
       <c r="D105" s="69"/>
@@ -6361,7 +6405,7 @@
       <c r="Z105" s="69"/>
       <c r="AA105" s="70"/>
     </row>
-    <row r="106" spans="2:27" ht="15" customHeight="1">
+    <row r="106" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="68"/>
       <c r="C106" s="69"/>
       <c r="D106" s="69"/>
@@ -6389,7 +6433,7 @@
       <c r="Z106" s="69"/>
       <c r="AA106" s="70"/>
     </row>
-    <row r="107" spans="2:27" ht="15" customHeight="1">
+    <row r="107" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="68"/>
       <c r="C107" s="69"/>
       <c r="D107" s="69"/>
@@ -6417,7 +6461,7 @@
       <c r="Z107" s="69"/>
       <c r="AA107" s="70"/>
     </row>
-    <row r="108" spans="2:27" ht="15" customHeight="1">
+    <row r="108" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="68"/>
       <c r="C108" s="69"/>
       <c r="D108" s="69"/>
@@ -6445,7 +6489,7 @@
       <c r="Z108" s="69"/>
       <c r="AA108" s="70"/>
     </row>
-    <row r="109" spans="2:27" ht="15" customHeight="1">
+    <row r="109" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="68"/>
       <c r="C109" s="69"/>
       <c r="D109" s="69"/>
@@ -6473,7 +6517,7 @@
       <c r="Z109" s="69"/>
       <c r="AA109" s="70"/>
     </row>
-    <row r="110" spans="2:27" ht="15" customHeight="1">
+    <row r="110" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="68"/>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -6501,7 +6545,7 @@
       <c r="Z110" s="69"/>
       <c r="AA110" s="70"/>
     </row>
-    <row r="111" spans="2:27" ht="15" customHeight="1">
+    <row r="111" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="68"/>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -6529,7 +6573,7 @@
       <c r="Z111" s="69"/>
       <c r="AA111" s="70"/>
     </row>
-    <row r="112" spans="2:27" ht="15" customHeight="1">
+    <row r="112" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="68"/>
       <c r="C112" s="69"/>
       <c r="D112" s="69"/>
@@ -6557,7 +6601,7 @@
       <c r="Z112" s="69"/>
       <c r="AA112" s="70"/>
     </row>
-    <row r="113" spans="2:27" ht="15" customHeight="1">
+    <row r="113" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="68"/>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -6585,7 +6629,7 @@
       <c r="Z113" s="69"/>
       <c r="AA113" s="70"/>
     </row>
-    <row r="114" spans="2:27" ht="15" customHeight="1">
+    <row r="114" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="68"/>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>
@@ -6613,7 +6657,7 @@
       <c r="Z114" s="69"/>
       <c r="AA114" s="70"/>
     </row>
-    <row r="115" spans="2:27" ht="15" customHeight="1">
+    <row r="115" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="68"/>
       <c r="C115" s="69"/>
       <c r="D115" s="69"/>
@@ -6641,7 +6685,7 @@
       <c r="Z115" s="69"/>
       <c r="AA115" s="70"/>
     </row>
-    <row r="116" spans="2:27" ht="15" customHeight="1">
+    <row r="116" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="68"/>
       <c r="C116" s="69"/>
       <c r="D116" s="69"/>
@@ -6669,7 +6713,7 @@
       <c r="Z116" s="69"/>
       <c r="AA116" s="70"/>
     </row>
-    <row r="117" spans="2:27" ht="15" customHeight="1">
+    <row r="117" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="68"/>
       <c r="C117" s="69"/>
       <c r="D117" s="69"/>
@@ -6697,7 +6741,7 @@
       <c r="Z117" s="69"/>
       <c r="AA117" s="70"/>
     </row>
-    <row r="118" spans="2:27" ht="15" customHeight="1">
+    <row r="118" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="68"/>
       <c r="C118" s="69"/>
       <c r="D118" s="69"/>
@@ -6725,7 +6769,7 @@
       <c r="Z118" s="69"/>
       <c r="AA118" s="70"/>
     </row>
-    <row r="119" spans="2:27" ht="15" customHeight="1">
+    <row r="119" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="68"/>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
@@ -6753,7 +6797,7 @@
       <c r="Z119" s="69"/>
       <c r="AA119" s="70"/>
     </row>
-    <row r="120" spans="2:27" ht="15" customHeight="1">
+    <row r="120" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="68"/>
       <c r="C120" s="69"/>
       <c r="D120" s="69"/>
@@ -6781,7 +6825,7 @@
       <c r="Z120" s="69"/>
       <c r="AA120" s="70"/>
     </row>
-    <row r="121" spans="2:27" ht="15" customHeight="1">
+    <row r="121" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="68"/>
       <c r="C121" s="69"/>
       <c r="D121" s="69"/>
@@ -6809,7 +6853,7 @@
       <c r="Z121" s="69"/>
       <c r="AA121" s="70"/>
     </row>
-    <row r="122" spans="2:27" ht="15" customHeight="1">
+    <row r="122" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="68"/>
       <c r="C122" s="69"/>
       <c r="D122" s="69"/>
@@ -6837,7 +6881,7 @@
       <c r="Z122" s="69"/>
       <c r="AA122" s="70"/>
     </row>
-    <row r="123" spans="2:27" ht="15" customHeight="1">
+    <row r="123" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="68"/>
       <c r="C123" s="69"/>
       <c r="D123" s="69"/>
@@ -6865,7 +6909,7 @@
       <c r="Z123" s="69"/>
       <c r="AA123" s="70"/>
     </row>
-    <row r="124" spans="2:27" ht="15" customHeight="1">
+    <row r="124" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="68"/>
       <c r="C124" s="69"/>
       <c r="D124" s="69"/>
@@ -6893,7 +6937,7 @@
       <c r="Z124" s="69"/>
       <c r="AA124" s="70"/>
     </row>
-    <row r="125" spans="2:27" ht="15" customHeight="1">
+    <row r="125" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="68"/>
       <c r="C125" s="69"/>
       <c r="D125" s="69"/>
@@ -6921,7 +6965,7 @@
       <c r="Z125" s="69"/>
       <c r="AA125" s="70"/>
     </row>
-    <row r="126" spans="2:27" ht="15" customHeight="1">
+    <row r="126" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="68"/>
       <c r="C126" s="69"/>
       <c r="D126" s="69"/>
@@ -6949,7 +6993,7 @@
       <c r="Z126" s="69"/>
       <c r="AA126" s="70"/>
     </row>
-    <row r="127" spans="2:27" ht="15" customHeight="1">
+    <row r="127" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="68"/>
       <c r="C127" s="69"/>
       <c r="D127" s="69"/>
@@ -6977,7 +7021,7 @@
       <c r="Z127" s="69"/>
       <c r="AA127" s="70"/>
     </row>
-    <row r="128" spans="2:27" ht="15" customHeight="1">
+    <row r="128" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="68"/>
       <c r="C128" s="69"/>
       <c r="D128" s="69"/>
@@ -7005,7 +7049,7 @@
       <c r="Z128" s="69"/>
       <c r="AA128" s="70"/>
     </row>
-    <row r="129" spans="2:27" ht="15" customHeight="1">
+    <row r="129" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="68"/>
       <c r="C129" s="69"/>
       <c r="D129" s="69"/>
@@ -7033,7 +7077,7 @@
       <c r="Z129" s="69"/>
       <c r="AA129" s="70"/>
     </row>
-    <row r="130" spans="2:27" ht="15" customHeight="1">
+    <row r="130" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="68"/>
       <c r="C130" s="69"/>
       <c r="D130" s="69"/>
@@ -7061,7 +7105,7 @@
       <c r="Z130" s="69"/>
       <c r="AA130" s="70"/>
     </row>
-    <row r="131" spans="2:27" ht="15" customHeight="1">
+    <row r="131" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="68"/>
       <c r="C131" s="69"/>
       <c r="D131" s="69"/>
@@ -7089,7 +7133,7 @@
       <c r="Z131" s="69"/>
       <c r="AA131" s="70"/>
     </row>
-    <row r="132" spans="2:27" ht="15" customHeight="1">
+    <row r="132" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="68"/>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
@@ -7117,7 +7161,7 @@
       <c r="Z132" s="69"/>
       <c r="AA132" s="70"/>
     </row>
-    <row r="133" spans="2:27" ht="15" customHeight="1">
+    <row r="133" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="68"/>
       <c r="C133" s="69"/>
       <c r="D133" s="69"/>
@@ -7145,7 +7189,7 @@
       <c r="Z133" s="69"/>
       <c r="AA133" s="70"/>
     </row>
-    <row r="134" spans="2:27" ht="15" customHeight="1">
+    <row r="134" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="68"/>
       <c r="C134" s="69"/>
       <c r="D134" s="69"/>
@@ -7173,7 +7217,7 @@
       <c r="Z134" s="69"/>
       <c r="AA134" s="70"/>
     </row>
-    <row r="135" spans="2:27" ht="15" customHeight="1">
+    <row r="135" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="68"/>
       <c r="C135" s="69"/>
       <c r="D135" s="69"/>
@@ -7201,7 +7245,7 @@
       <c r="Z135" s="69"/>
       <c r="AA135" s="70"/>
     </row>
-    <row r="136" spans="2:27" ht="15" customHeight="1">
+    <row r="136" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="68"/>
       <c r="C136" s="69"/>
       <c r="D136" s="69"/>
@@ -7229,7 +7273,7 @@
       <c r="Z136" s="69"/>
       <c r="AA136" s="70"/>
     </row>
-    <row r="137" spans="2:27" ht="15" customHeight="1">
+    <row r="137" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="68"/>
       <c r="C137" s="69"/>
       <c r="D137" s="69"/>
@@ -7257,7 +7301,7 @@
       <c r="Z137" s="69"/>
       <c r="AA137" s="70"/>
     </row>
-    <row r="138" spans="2:27" ht="15" customHeight="1">
+    <row r="138" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="68"/>
       <c r="C138" s="69"/>
       <c r="D138" s="69"/>
@@ -7285,7 +7329,7 @@
       <c r="Z138" s="69"/>
       <c r="AA138" s="70"/>
     </row>
-    <row r="139" spans="2:27" ht="15" customHeight="1">
+    <row r="139" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="68"/>
       <c r="C139" s="69"/>
       <c r="D139" s="69"/>
@@ -7313,7 +7357,7 @@
       <c r="Z139" s="69"/>
       <c r="AA139" s="70"/>
     </row>
-    <row r="140" spans="2:27" ht="15" customHeight="1">
+    <row r="140" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="68"/>
       <c r="C140" s="69"/>
       <c r="D140" s="69"/>
@@ -7341,7 +7385,7 @@
       <c r="Z140" s="69"/>
       <c r="AA140" s="70"/>
     </row>
-    <row r="141" spans="2:27" ht="15" customHeight="1">
+    <row r="141" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="68"/>
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
@@ -7369,7 +7413,7 @@
       <c r="Z141" s="69"/>
       <c r="AA141" s="70"/>
     </row>
-    <row r="142" spans="2:27" ht="15" customHeight="1">
+    <row r="142" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="68"/>
       <c r="C142" s="69"/>
       <c r="D142" s="69"/>
@@ -7397,7 +7441,7 @@
       <c r="Z142" s="69"/>
       <c r="AA142" s="70"/>
     </row>
-    <row r="143" spans="2:27" ht="15" customHeight="1">
+    <row r="143" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="68"/>
       <c r="C143" s="69"/>
       <c r="D143" s="69"/>
@@ -7425,7 +7469,7 @@
       <c r="Z143" s="69"/>
       <c r="AA143" s="70"/>
     </row>
-    <row r="144" spans="2:27" ht="15" customHeight="1">
+    <row r="144" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="68"/>
       <c r="C144" s="69"/>
       <c r="D144" s="69"/>
@@ -7453,7 +7497,7 @@
       <c r="Z144" s="69"/>
       <c r="AA144" s="70"/>
     </row>
-    <row r="145" spans="2:27" ht="15" customHeight="1">
+    <row r="145" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="68"/>
       <c r="C145" s="69"/>
       <c r="D145" s="69"/>
@@ -7481,7 +7525,7 @@
       <c r="Z145" s="69"/>
       <c r="AA145" s="70"/>
     </row>
-    <row r="146" spans="2:27" ht="15" customHeight="1">
+    <row r="146" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="68"/>
       <c r="C146" s="69"/>
       <c r="D146" s="69"/>
@@ -7509,7 +7553,7 @@
       <c r="Z146" s="69"/>
       <c r="AA146" s="70"/>
     </row>
-    <row r="147" spans="2:27" ht="15" customHeight="1">
+    <row r="147" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="68"/>
       <c r="C147" s="69"/>
       <c r="D147" s="69"/>
@@ -7537,7 +7581,7 @@
       <c r="Z147" s="69"/>
       <c r="AA147" s="70"/>
     </row>
-    <row r="148" spans="2:27" ht="15" customHeight="1">
+    <row r="148" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="68"/>
       <c r="C148" s="69"/>
       <c r="D148" s="69"/>
@@ -7565,7 +7609,7 @@
       <c r="Z148" s="69"/>
       <c r="AA148" s="70"/>
     </row>
-    <row r="149" spans="2:27" ht="15" customHeight="1">
+    <row r="149" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="68"/>
       <c r="C149" s="69"/>
       <c r="D149" s="69"/>
@@ -7593,7 +7637,7 @@
       <c r="Z149" s="69"/>
       <c r="AA149" s="70"/>
     </row>
-    <row r="150" spans="2:27" ht="15" customHeight="1">
+    <row r="150" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="68"/>
       <c r="C150" s="69"/>
       <c r="D150" s="69"/>
@@ -7621,7 +7665,7 @@
       <c r="Z150" s="69"/>
       <c r="AA150" s="70"/>
     </row>
-    <row r="151" spans="2:27" ht="15" customHeight="1">
+    <row r="151" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="68"/>
       <c r="C151" s="69"/>
       <c r="D151" s="69"/>
@@ -7649,7 +7693,7 @@
       <c r="Z151" s="69"/>
       <c r="AA151" s="70"/>
     </row>
-    <row r="152" spans="2:27" ht="15" customHeight="1">
+    <row r="152" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="68"/>
       <c r="C152" s="69"/>
       <c r="D152" s="69"/>
@@ -7677,7 +7721,7 @@
       <c r="Z152" s="69"/>
       <c r="AA152" s="70"/>
     </row>
-    <row r="153" spans="2:27" ht="15" customHeight="1">
+    <row r="153" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="68"/>
       <c r="C153" s="69"/>
       <c r="D153" s="69"/>
@@ -7705,7 +7749,7 @@
       <c r="Z153" s="69"/>
       <c r="AA153" s="70"/>
     </row>
-    <row r="154" spans="2:27" ht="15" customHeight="1">
+    <row r="154" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="68"/>
       <c r="C154" s="69"/>
       <c r="D154" s="69"/>
@@ -7733,7 +7777,7 @@
       <c r="Z154" s="69"/>
       <c r="AA154" s="70"/>
     </row>
-    <row r="155" spans="2:27" ht="15" customHeight="1">
+    <row r="155" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="68"/>
       <c r="C155" s="69"/>
       <c r="D155" s="69"/>
@@ -7761,7 +7805,7 @@
       <c r="Z155" s="69"/>
       <c r="AA155" s="70"/>
     </row>
-    <row r="156" spans="2:27" ht="15" customHeight="1">
+    <row r="156" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="68"/>
       <c r="C156" s="69"/>
       <c r="D156" s="69"/>
@@ -7789,7 +7833,7 @@
       <c r="Z156" s="69"/>
       <c r="AA156" s="70"/>
     </row>
-    <row r="157" spans="2:27" ht="15" customHeight="1">
+    <row r="157" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="68"/>
       <c r="C157" s="69"/>
       <c r="D157" s="69"/>
@@ -7817,7 +7861,7 @@
       <c r="Z157" s="69"/>
       <c r="AA157" s="70"/>
     </row>
-    <row r="158" spans="2:27" ht="15" customHeight="1">
+    <row r="158" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="71"/>
       <c r="C158" s="72"/>
       <c r="D158" s="72"/>
@@ -7860,79 +7904,79 @@
     <mergeCell ref="AA18:AL18"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F27 B31:F49">
-    <cfRule type="expression" dxfId="23" priority="966">
+    <cfRule type="expression" dxfId="23" priority="977">
+      <formula>$B9=$M$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="966">
       <formula>$B9=$M$15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="967">
+    <cfRule type="expression" dxfId="21" priority="967">
       <formula>$B9=$M$13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="968">
+    <cfRule type="expression" dxfId="20" priority="968">
       <formula>$B9=$M$18</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="969">
+    <cfRule type="expression" dxfId="19" priority="969">
       <formula>$B9=$M$14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="970">
+    <cfRule type="expression" dxfId="18" priority="970">
       <formula>$B9=$M$19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="971">
+    <cfRule type="expression" dxfId="17" priority="971">
       <formula>$B9=$M$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="972">
+    <cfRule type="expression" dxfId="16" priority="972">
       <formula>$B9=$M$16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="973">
+    <cfRule type="expression" dxfId="15" priority="973">
       <formula>$B9=$M$20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="974">
+    <cfRule type="expression" dxfId="14" priority="974">
       <formula>$B9=$M$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="975">
+    <cfRule type="expression" dxfId="13" priority="975">
       <formula>$B9=$M$17</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="976">
+    <cfRule type="expression" dxfId="12" priority="976">
       <formula>$B9=$M$11</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="977">
-      <formula>$B9=$M$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K27 G31:K49">
-    <cfRule type="expression" dxfId="11" priority="954">
-      <formula>$K9=$M$15</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="955">
+    <cfRule type="expression" dxfId="11" priority="955">
       <formula>$K9=$M$13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="956">
+    <cfRule type="expression" dxfId="10" priority="956">
       <formula>$K9=$M$18</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="957">
+    <cfRule type="expression" dxfId="9" priority="957">
       <formula>$K9=$M$14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="958">
+    <cfRule type="expression" dxfId="8" priority="958">
       <formula>$K9=$M$19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="959">
+    <cfRule type="expression" dxfId="7" priority="959">
       <formula>$K9=$M$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="960">
+    <cfRule type="expression" dxfId="6" priority="960">
       <formula>$K9=$M$16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="961">
+    <cfRule type="expression" dxfId="5" priority="961">
       <formula>$K9=$M$20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="962">
+    <cfRule type="expression" dxfId="4" priority="962">
       <formula>$K9=$M$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="963">
+    <cfRule type="expression" dxfId="3" priority="963">
       <formula>$K9=$M$17</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="964">
+    <cfRule type="expression" dxfId="2" priority="964">
       <formula>$K9=$M$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="965">
+    <cfRule type="expression" dxfId="1" priority="965">
       <formula>$K9=$M$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="954">
+      <formula>$K9=$M$15</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7959,18 +8003,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" thickBot="1">
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>159</v>
       </c>
@@ -7991,7 +8035,7 @@
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75">
+    <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>165</v>
       </c>
@@ -8014,7 +8058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75">
+    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>171</v>
       </c>
@@ -8035,7 +8079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75">
+    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -8058,7 +8102,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75">
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>180</v>
       </c>
@@ -8082,7 +8126,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75">
+    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>185</v>
       </c>
@@ -8103,7 +8147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75">
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>189</v>
       </c>
@@ -8117,7 +8161,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75">
+    <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>191</v>
       </c>
@@ -8131,7 +8175,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75">
+    <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>193</v>
       </c>
@@ -8145,7 +8189,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75">
+    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>195</v>
       </c>
@@ -8160,7 +8204,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>198</v>
       </c>
@@ -8168,7 +8212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>200</v>
       </c>
@@ -8184,7 +8228,7 @@
         <v>0.12217304763960309</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1">
+    <row r="17" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E17" s="16" t="s">
         <v>201</v>
       </c>
@@ -8198,7 +8242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>205</v>
       </c>
@@ -8223,7 +8267,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>208</v>
       </c>
@@ -8252,7 +8296,7 @@
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
         <v>210</v>
       </c>

--- a/Romi Pins.xlsx
+++ b/Romi Pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/clbonney_calpoly_edu/Documents/ME 405 Mechatronics Lab/ME405-Mechatronics-Romi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2052" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BED8FB-D14D-4848-A900-B4A0927756E0}"/>
+  <xr:revisionPtr revIDLastSave="2054" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08F6418-2903-4CDA-8D0C-2C6AF8759B07}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{2EB5B3E0-4CA6-4DEA-8D58-C3FD12820291}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="0" windowWidth="26010" windowHeight="20880" activeTab="1" xr2:uid="{2EB5B3E0-4CA6-4DEA-8D58-C3FD12820291}"/>
   </bookViews>
   <sheets>
     <sheet name="Nucleo_Pinout_Table" sheetId="5" r:id="rId1"/>
@@ -1478,128 +1478,7 @@
       </font>
       <fill>
         <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1732,6 +1611,127 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1938,8 +1938,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22883567" y="1520054"/>
-          <a:ext cx="7557883" cy="1607461"/>
+          <a:off x="20066374" y="1514475"/>
+          <a:ext cx="6667523" cy="1600287"/>
           <a:chOff x="11820145" y="6660710"/>
           <a:chExt cx="6630544" cy="1835997"/>
         </a:xfrm>
@@ -2749,35 +2749,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0FF3C0-CECB-2D4C-9343-7B8484A1E447}">
   <dimension ref="B2:AL158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM4" zoomScale="239" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AV21" sqref="AV21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="18" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="18"/>
+    <col min="11" max="11" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="76"/>
     </row>
-    <row r="3" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>2</v>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76">
         <f>ROW()-ROW($B$2)</f>
         <v>3</v>
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="AK7" s="87"/>
       <c r="AL7" s="88"/>
     </row>
-    <row r="8" spans="2:38" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="AK8" s="59"/>
       <c r="AL8" s="60"/>
     </row>
-    <row r="9" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="AK9" s="59"/>
       <c r="AL9" s="60"/>
     </row>
-    <row r="10" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="AK10" s="59"/>
       <c r="AL10" s="60"/>
     </row>
-    <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3065,7 +3065,7 @@
       <c r="AK11" s="59"/>
       <c r="AL11" s="60"/>
     </row>
-    <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -3113,7 +3113,7 @@
       <c r="AK12" s="59"/>
       <c r="AL12" s="60"/>
     </row>
-    <row r="13" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>41</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="AK13" s="59"/>
       <c r="AL13" s="60"/>
     </row>
-    <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>41</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="AK14" s="59"/>
       <c r="AL14" s="60"/>
     </row>
-    <row r="15" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>46</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="AK15" s="59"/>
       <c r="AL15" s="60"/>
     </row>
-    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>46</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="AK16" s="62"/>
       <c r="AL16" s="63"/>
     </row>
-    <row r="17" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="s">
         <v>31</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="X17" s="39"/>
       <c r="Y17" s="40"/>
     </row>
-    <row r="18" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3413,7 +3413,7 @@
       <c r="AK18" s="87"/>
       <c r="AL18" s="88"/>
     </row>
-    <row r="19" spans="2:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>30</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="AK19" s="59"/>
       <c r="AL19" s="60"/>
     </row>
-    <row r="20" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="AK20" s="59"/>
       <c r="AL20" s="60"/>
     </row>
-    <row r="21" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
         <v>46</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="AK21" s="59"/>
       <c r="AL21" s="60"/>
     </row>
-    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
         <v>46</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="AK22" s="59"/>
       <c r="AL22" s="60"/>
     </row>
-    <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>50</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="AK23" s="59"/>
       <c r="AL23" s="60"/>
     </row>
-    <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>61</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="AK24" s="59"/>
       <c r="AL24" s="60"/>
     </row>
-    <row r="25" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3781,7 +3781,7 @@
       <c r="AK25" s="59"/>
       <c r="AL25" s="60"/>
     </row>
-    <row r="26" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3828,7 +3828,7 @@
       <c r="AK26" s="59"/>
       <c r="AL26" s="60"/>
     </row>
-    <row r="27" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28" t="s">
         <v>55</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="AK27" s="59"/>
       <c r="AL27" s="60"/>
     </row>
-    <row r="28" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O28" s="38"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -3906,7 +3906,7 @@
       <c r="AK28" s="59"/>
       <c r="AL28" s="60"/>
     </row>
-    <row r="29" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="82" t="s">
         <v>103</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="AK29" s="59"/>
       <c r="AL29" s="60"/>
     </row>
-    <row r="30" spans="2:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
         <v>8</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="AK30" s="59"/>
       <c r="AL30" s="60"/>
     </row>
-    <row r="31" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>20</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="AK31" s="59"/>
       <c r="AL31" s="60"/>
     </row>
-    <row r="32" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27" t="s">
         <v>14</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="AK32" s="59"/>
       <c r="AL32" s="60"/>
     </row>
-    <row r="33" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -4135,7 +4135,7 @@
       <c r="AK33" s="59"/>
       <c r="AL33" s="60"/>
     </row>
-    <row r="34" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4174,7 +4174,7 @@
       <c r="AK34" s="59"/>
       <c r="AL34" s="60"/>
     </row>
-    <row r="35" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4221,7 +4221,7 @@
       <c r="AK35" s="59"/>
       <c r="AL35" s="60"/>
     </row>
-    <row r="36" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
         <v>46</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="AK36" s="59"/>
       <c r="AL36" s="60"/>
     </row>
-    <row r="37" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27" t="s">
         <v>50</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="AK37" s="59"/>
       <c r="AL37" s="60"/>
     </row>
-    <row r="38" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27" t="s">
         <v>61</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="AK38" s="59"/>
       <c r="AL38" s="60"/>
     </row>
-    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27" t="s">
         <v>30</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="AK39" s="59"/>
       <c r="AL39" s="60"/>
     </row>
-    <row r="40" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27" t="s">
         <v>31</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="AK40" s="59"/>
       <c r="AL40" s="60"/>
     </row>
-    <row r="41" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27" t="s">
         <v>46</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="AK41" s="59"/>
       <c r="AL41" s="60"/>
     </row>
-    <row r="42" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4562,7 +4562,7 @@
       <c r="AK42" s="59"/>
       <c r="AL42" s="60"/>
     </row>
-    <row r="43" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
         <v>37</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="AK43" s="59"/>
       <c r="AL43" s="60"/>
     </row>
-    <row r="44" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
         <v>61</v>
       </c>
@@ -4654,7 +4654,7 @@
       <c r="AK44" s="59"/>
       <c r="AL44" s="60"/>
     </row>
-    <row r="45" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
         <v>50</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="AK45" s="59"/>
       <c r="AL45" s="60"/>
     </row>
-    <row r="46" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4740,7 +4740,7 @@
       <c r="AK46" s="59"/>
       <c r="AL46" s="60"/>
     </row>
-    <row r="47" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4785,7 +4785,7 @@
       <c r="AK47" s="62"/>
       <c r="AL47" s="63"/>
     </row>
-    <row r="48" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27" t="s">
         <v>46</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="X48" s="39"/>
       <c r="Y48" s="40"/>
     </row>
-    <row r="49" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28" t="s">
         <v>46</v>
       </c>
@@ -4863,7 +4863,7 @@
       <c r="X49" s="42"/>
       <c r="Y49" s="43"/>
     </row>
-    <row r="51" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="79" t="s">
         <v>158</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="Z51" s="80"/>
       <c r="AA51" s="81"/>
     </row>
-    <row r="52" spans="2:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B52" s="68"/>
       <c r="C52" s="69"/>
       <c r="D52" s="69"/>
@@ -4921,7 +4921,7 @@
       <c r="Z52" s="69"/>
       <c r="AA52" s="70"/>
     </row>
-    <row r="53" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="68"/>
       <c r="C53" s="69"/>
       <c r="D53" s="69"/>
@@ -4949,7 +4949,7 @@
       <c r="Z53" s="69"/>
       <c r="AA53" s="70"/>
     </row>
-    <row r="54" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="68"/>
       <c r="C54" s="69"/>
       <c r="D54" s="69"/>
@@ -4977,7 +4977,7 @@
       <c r="Z54" s="69"/>
       <c r="AA54" s="70"/>
     </row>
-    <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="68"/>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
@@ -5005,7 +5005,7 @@
       <c r="Z55" s="69"/>
       <c r="AA55" s="70"/>
     </row>
-    <row r="56" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="68"/>
       <c r="C56" s="69"/>
       <c r="D56" s="69"/>
@@ -5033,7 +5033,7 @@
       <c r="Z56" s="69"/>
       <c r="AA56" s="70"/>
     </row>
-    <row r="57" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="68"/>
       <c r="C57" s="69"/>
       <c r="D57" s="69"/>
@@ -5061,7 +5061,7 @@
       <c r="Z57" s="69"/>
       <c r="AA57" s="70"/>
     </row>
-    <row r="58" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="68"/>
       <c r="C58" s="69"/>
       <c r="D58" s="69"/>
@@ -5089,7 +5089,7 @@
       <c r="Z58" s="69"/>
       <c r="AA58" s="70"/>
     </row>
-    <row r="59" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="68"/>
       <c r="C59" s="69"/>
       <c r="D59" s="69"/>
@@ -5117,7 +5117,7 @@
       <c r="Z59" s="69"/>
       <c r="AA59" s="70"/>
     </row>
-    <row r="60" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="68"/>
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
@@ -5145,7 +5145,7 @@
       <c r="Z60" s="69"/>
       <c r="AA60" s="70"/>
     </row>
-    <row r="61" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="68"/>
       <c r="C61" s="69"/>
       <c r="D61" s="69"/>
@@ -5173,7 +5173,7 @@
       <c r="Z61" s="69"/>
       <c r="AA61" s="70"/>
     </row>
-    <row r="62" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="68"/>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
@@ -5201,7 +5201,7 @@
       <c r="Z62" s="69"/>
       <c r="AA62" s="70"/>
     </row>
-    <row r="63" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="68"/>
       <c r="C63" s="69"/>
       <c r="D63" s="69"/>
@@ -5229,7 +5229,7 @@
       <c r="Z63" s="69"/>
       <c r="AA63" s="70"/>
     </row>
-    <row r="64" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="68"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
@@ -5257,7 +5257,7 @@
       <c r="Z64" s="69"/>
       <c r="AA64" s="70"/>
     </row>
-    <row r="65" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="68"/>
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
@@ -5285,7 +5285,7 @@
       <c r="Z65" s="69"/>
       <c r="AA65" s="70"/>
     </row>
-    <row r="66" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="68"/>
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
@@ -5313,7 +5313,7 @@
       <c r="Z66" s="69"/>
       <c r="AA66" s="70"/>
     </row>
-    <row r="67" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="68"/>
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
@@ -5341,7 +5341,7 @@
       <c r="Z67" s="69"/>
       <c r="AA67" s="70"/>
     </row>
-    <row r="68" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="68"/>
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
@@ -5369,7 +5369,7 @@
       <c r="Z68" s="69"/>
       <c r="AA68" s="70"/>
     </row>
-    <row r="69" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="68"/>
       <c r="C69" s="69"/>
       <c r="D69" s="69"/>
@@ -5397,7 +5397,7 @@
       <c r="Z69" s="69"/>
       <c r="AA69" s="70"/>
     </row>
-    <row r="70" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="68"/>
       <c r="C70" s="69"/>
       <c r="D70" s="69"/>
@@ -5425,7 +5425,7 @@
       <c r="Z70" s="69"/>
       <c r="AA70" s="70"/>
     </row>
-    <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="68"/>
       <c r="C71" s="69"/>
       <c r="D71" s="69"/>
@@ -5453,7 +5453,7 @@
       <c r="Z71" s="69"/>
       <c r="AA71" s="70"/>
     </row>
-    <row r="72" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="68"/>
       <c r="C72" s="69"/>
       <c r="D72" s="69"/>
@@ -5481,7 +5481,7 @@
       <c r="Z72" s="69"/>
       <c r="AA72" s="70"/>
     </row>
-    <row r="73" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="68"/>
       <c r="C73" s="69"/>
       <c r="D73" s="69"/>
@@ -5509,7 +5509,7 @@
       <c r="Z73" s="69"/>
       <c r="AA73" s="70"/>
     </row>
-    <row r="74" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="68"/>
       <c r="C74" s="69"/>
       <c r="D74" s="69"/>
@@ -5537,7 +5537,7 @@
       <c r="Z74" s="69"/>
       <c r="AA74" s="70"/>
     </row>
-    <row r="75" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="68"/>
       <c r="C75" s="69"/>
       <c r="D75" s="69"/>
@@ -5565,7 +5565,7 @@
       <c r="Z75" s="69"/>
       <c r="AA75" s="70"/>
     </row>
-    <row r="76" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="68"/>
       <c r="C76" s="69"/>
       <c r="D76" s="69"/>
@@ -5593,7 +5593,7 @@
       <c r="Z76" s="69"/>
       <c r="AA76" s="70"/>
     </row>
-    <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="68"/>
       <c r="C77" s="69"/>
       <c r="D77" s="69"/>
@@ -5621,7 +5621,7 @@
       <c r="Z77" s="69"/>
       <c r="AA77" s="70"/>
     </row>
-    <row r="78" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="68"/>
       <c r="C78" s="69"/>
       <c r="D78" s="69"/>
@@ -5649,7 +5649,7 @@
       <c r="Z78" s="69"/>
       <c r="AA78" s="70"/>
     </row>
-    <row r="79" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="68"/>
       <c r="C79" s="69"/>
       <c r="D79" s="69"/>
@@ -5677,7 +5677,7 @@
       <c r="Z79" s="69"/>
       <c r="AA79" s="70"/>
     </row>
-    <row r="80" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="68"/>
       <c r="C80" s="69"/>
       <c r="D80" s="69"/>
@@ -5705,7 +5705,7 @@
       <c r="Z80" s="69"/>
       <c r="AA80" s="70"/>
     </row>
-    <row r="81" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="68"/>
       <c r="C81" s="69"/>
       <c r="D81" s="69"/>
@@ -5733,7 +5733,7 @@
       <c r="Z81" s="69"/>
       <c r="AA81" s="70"/>
     </row>
-    <row r="82" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="68"/>
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
@@ -5761,7 +5761,7 @@
       <c r="Z82" s="69"/>
       <c r="AA82" s="70"/>
     </row>
-    <row r="83" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="68"/>
       <c r="C83" s="69"/>
       <c r="D83" s="69"/>
@@ -5789,7 +5789,7 @@
       <c r="Z83" s="69"/>
       <c r="AA83" s="70"/>
     </row>
-    <row r="84" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="68"/>
       <c r="C84" s="69"/>
       <c r="D84" s="69"/>
@@ -5817,7 +5817,7 @@
       <c r="Z84" s="69"/>
       <c r="AA84" s="70"/>
     </row>
-    <row r="85" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="68"/>
       <c r="C85" s="69"/>
       <c r="D85" s="69"/>
@@ -5845,7 +5845,7 @@
       <c r="Z85" s="69"/>
       <c r="AA85" s="70"/>
     </row>
-    <row r="86" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="68"/>
       <c r="C86" s="69"/>
       <c r="D86" s="69"/>
@@ -5873,7 +5873,7 @@
       <c r="Z86" s="69"/>
       <c r="AA86" s="70"/>
     </row>
-    <row r="87" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="68"/>
       <c r="C87" s="69"/>
       <c r="D87" s="69"/>
@@ -5901,7 +5901,7 @@
       <c r="Z87" s="69"/>
       <c r="AA87" s="70"/>
     </row>
-    <row r="88" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="68"/>
       <c r="C88" s="69"/>
       <c r="D88" s="69"/>
@@ -5929,7 +5929,7 @@
       <c r="Z88" s="69"/>
       <c r="AA88" s="70"/>
     </row>
-    <row r="89" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="68"/>
       <c r="C89" s="69"/>
       <c r="D89" s="69"/>
@@ -5957,7 +5957,7 @@
       <c r="Z89" s="69"/>
       <c r="AA89" s="70"/>
     </row>
-    <row r="90" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="68"/>
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
@@ -5985,7 +5985,7 @@
       <c r="Z90" s="69"/>
       <c r="AA90" s="70"/>
     </row>
-    <row r="91" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="68"/>
       <c r="C91" s="69"/>
       <c r="D91" s="69"/>
@@ -6013,7 +6013,7 @@
       <c r="Z91" s="69"/>
       <c r="AA91" s="70"/>
     </row>
-    <row r="92" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="68"/>
       <c r="C92" s="69"/>
       <c r="D92" s="69"/>
@@ -6041,7 +6041,7 @@
       <c r="Z92" s="69"/>
       <c r="AA92" s="70"/>
     </row>
-    <row r="93" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="68"/>
       <c r="C93" s="69"/>
       <c r="D93" s="69"/>
@@ -6069,7 +6069,7 @@
       <c r="Z93" s="69"/>
       <c r="AA93" s="70"/>
     </row>
-    <row r="94" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="68"/>
       <c r="C94" s="69"/>
       <c r="D94" s="69"/>
@@ -6097,7 +6097,7 @@
       <c r="Z94" s="69"/>
       <c r="AA94" s="70"/>
     </row>
-    <row r="95" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="68"/>
       <c r="C95" s="69"/>
       <c r="D95" s="69"/>
@@ -6125,7 +6125,7 @@
       <c r="Z95" s="69"/>
       <c r="AA95" s="70"/>
     </row>
-    <row r="96" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="68"/>
       <c r="C96" s="69"/>
       <c r="D96" s="69"/>
@@ -6153,7 +6153,7 @@
       <c r="Z96" s="69"/>
       <c r="AA96" s="70"/>
     </row>
-    <row r="97" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="68"/>
       <c r="C97" s="69"/>
       <c r="D97" s="69"/>
@@ -6181,7 +6181,7 @@
       <c r="Z97" s="69"/>
       <c r="AA97" s="70"/>
     </row>
-    <row r="98" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="68"/>
       <c r="C98" s="69"/>
       <c r="D98" s="69"/>
@@ -6209,7 +6209,7 @@
       <c r="Z98" s="69"/>
       <c r="AA98" s="70"/>
     </row>
-    <row r="99" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="68"/>
       <c r="C99" s="69"/>
       <c r="D99" s="69"/>
@@ -6237,7 +6237,7 @@
       <c r="Z99" s="69"/>
       <c r="AA99" s="70"/>
     </row>
-    <row r="100" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="68"/>
       <c r="C100" s="69"/>
       <c r="D100" s="69"/>
@@ -6265,7 +6265,7 @@
       <c r="Z100" s="69"/>
       <c r="AA100" s="70"/>
     </row>
-    <row r="101" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="68"/>
       <c r="C101" s="69"/>
       <c r="D101" s="69"/>
@@ -6293,7 +6293,7 @@
       <c r="Z101" s="69"/>
       <c r="AA101" s="70"/>
     </row>
-    <row r="102" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="68"/>
       <c r="C102" s="69"/>
       <c r="D102" s="69"/>
@@ -6321,7 +6321,7 @@
       <c r="Z102" s="69"/>
       <c r="AA102" s="70"/>
     </row>
-    <row r="103" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="68"/>
       <c r="C103" s="69"/>
       <c r="D103" s="69"/>
@@ -6349,7 +6349,7 @@
       <c r="Z103" s="69"/>
       <c r="AA103" s="70"/>
     </row>
-    <row r="104" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="68"/>
       <c r="C104" s="69"/>
       <c r="D104" s="69"/>
@@ -6377,7 +6377,7 @@
       <c r="Z104" s="69"/>
       <c r="AA104" s="70"/>
     </row>
-    <row r="105" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="68"/>
       <c r="C105" s="69"/>
       <c r="D105" s="69"/>
@@ -6405,7 +6405,7 @@
       <c r="Z105" s="69"/>
       <c r="AA105" s="70"/>
     </row>
-    <row r="106" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="68"/>
       <c r="C106" s="69"/>
       <c r="D106" s="69"/>
@@ -6433,7 +6433,7 @@
       <c r="Z106" s="69"/>
       <c r="AA106" s="70"/>
     </row>
-    <row r="107" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="68"/>
       <c r="C107" s="69"/>
       <c r="D107" s="69"/>
@@ -6461,7 +6461,7 @@
       <c r="Z107" s="69"/>
       <c r="AA107" s="70"/>
     </row>
-    <row r="108" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="68"/>
       <c r="C108" s="69"/>
       <c r="D108" s="69"/>
@@ -6489,7 +6489,7 @@
       <c r="Z108" s="69"/>
       <c r="AA108" s="70"/>
     </row>
-    <row r="109" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="68"/>
       <c r="C109" s="69"/>
       <c r="D109" s="69"/>
@@ -6517,7 +6517,7 @@
       <c r="Z109" s="69"/>
       <c r="AA109" s="70"/>
     </row>
-    <row r="110" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="68"/>
       <c r="C110" s="69"/>
       <c r="D110" s="69"/>
@@ -6545,7 +6545,7 @@
       <c r="Z110" s="69"/>
       <c r="AA110" s="70"/>
     </row>
-    <row r="111" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="68"/>
       <c r="C111" s="69"/>
       <c r="D111" s="69"/>
@@ -6573,7 +6573,7 @@
       <c r="Z111" s="69"/>
       <c r="AA111" s="70"/>
     </row>
-    <row r="112" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="68"/>
       <c r="C112" s="69"/>
       <c r="D112" s="69"/>
@@ -6601,7 +6601,7 @@
       <c r="Z112" s="69"/>
       <c r="AA112" s="70"/>
     </row>
-    <row r="113" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="68"/>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
@@ -6629,7 +6629,7 @@
       <c r="Z113" s="69"/>
       <c r="AA113" s="70"/>
     </row>
-    <row r="114" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="68"/>
       <c r="C114" s="69"/>
       <c r="D114" s="69"/>
@@ -6657,7 +6657,7 @@
       <c r="Z114" s="69"/>
       <c r="AA114" s="70"/>
     </row>
-    <row r="115" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="68"/>
       <c r="C115" s="69"/>
       <c r="D115" s="69"/>
@@ -6685,7 +6685,7 @@
       <c r="Z115" s="69"/>
       <c r="AA115" s="70"/>
     </row>
-    <row r="116" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="68"/>
       <c r="C116" s="69"/>
       <c r="D116" s="69"/>
@@ -6713,7 +6713,7 @@
       <c r="Z116" s="69"/>
       <c r="AA116" s="70"/>
     </row>
-    <row r="117" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="68"/>
       <c r="C117" s="69"/>
       <c r="D117" s="69"/>
@@ -6741,7 +6741,7 @@
       <c r="Z117" s="69"/>
       <c r="AA117" s="70"/>
     </row>
-    <row r="118" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="68"/>
       <c r="C118" s="69"/>
       <c r="D118" s="69"/>
@@ -6769,7 +6769,7 @@
       <c r="Z118" s="69"/>
       <c r="AA118" s="70"/>
     </row>
-    <row r="119" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="68"/>
       <c r="C119" s="69"/>
       <c r="D119" s="69"/>
@@ -6797,7 +6797,7 @@
       <c r="Z119" s="69"/>
       <c r="AA119" s="70"/>
     </row>
-    <row r="120" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="68"/>
       <c r="C120" s="69"/>
       <c r="D120" s="69"/>
@@ -6825,7 +6825,7 @@
       <c r="Z120" s="69"/>
       <c r="AA120" s="70"/>
     </row>
-    <row r="121" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="68"/>
       <c r="C121" s="69"/>
       <c r="D121" s="69"/>
@@ -6853,7 +6853,7 @@
       <c r="Z121" s="69"/>
       <c r="AA121" s="70"/>
     </row>
-    <row r="122" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="68"/>
       <c r="C122" s="69"/>
       <c r="D122" s="69"/>
@@ -6881,7 +6881,7 @@
       <c r="Z122" s="69"/>
       <c r="AA122" s="70"/>
     </row>
-    <row r="123" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="68"/>
       <c r="C123" s="69"/>
       <c r="D123" s="69"/>
@@ -6909,7 +6909,7 @@
       <c r="Z123" s="69"/>
       <c r="AA123" s="70"/>
     </row>
-    <row r="124" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="68"/>
       <c r="C124" s="69"/>
       <c r="D124" s="69"/>
@@ -6937,7 +6937,7 @@
       <c r="Z124" s="69"/>
       <c r="AA124" s="70"/>
     </row>
-    <row r="125" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="68"/>
       <c r="C125" s="69"/>
       <c r="D125" s="69"/>
@@ -6965,7 +6965,7 @@
       <c r="Z125" s="69"/>
       <c r="AA125" s="70"/>
     </row>
-    <row r="126" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="68"/>
       <c r="C126" s="69"/>
       <c r="D126" s="69"/>
@@ -6993,7 +6993,7 @@
       <c r="Z126" s="69"/>
       <c r="AA126" s="70"/>
     </row>
-    <row r="127" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="68"/>
       <c r="C127" s="69"/>
       <c r="D127" s="69"/>
@@ -7021,7 +7021,7 @@
       <c r="Z127" s="69"/>
       <c r="AA127" s="70"/>
     </row>
-    <row r="128" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="68"/>
       <c r="C128" s="69"/>
       <c r="D128" s="69"/>
@@ -7049,7 +7049,7 @@
       <c r="Z128" s="69"/>
       <c r="AA128" s="70"/>
     </row>
-    <row r="129" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="68"/>
       <c r="C129" s="69"/>
       <c r="D129" s="69"/>
@@ -7077,7 +7077,7 @@
       <c r="Z129" s="69"/>
       <c r="AA129" s="70"/>
     </row>
-    <row r="130" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="68"/>
       <c r="C130" s="69"/>
       <c r="D130" s="69"/>
@@ -7105,7 +7105,7 @@
       <c r="Z130" s="69"/>
       <c r="AA130" s="70"/>
     </row>
-    <row r="131" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="68"/>
       <c r="C131" s="69"/>
       <c r="D131" s="69"/>
@@ -7133,7 +7133,7 @@
       <c r="Z131" s="69"/>
       <c r="AA131" s="70"/>
     </row>
-    <row r="132" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="68"/>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
@@ -7161,7 +7161,7 @@
       <c r="Z132" s="69"/>
       <c r="AA132" s="70"/>
     </row>
-    <row r="133" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="68"/>
       <c r="C133" s="69"/>
       <c r="D133" s="69"/>
@@ -7189,7 +7189,7 @@
       <c r="Z133" s="69"/>
       <c r="AA133" s="70"/>
     </row>
-    <row r="134" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="68"/>
       <c r="C134" s="69"/>
       <c r="D134" s="69"/>
@@ -7217,7 +7217,7 @@
       <c r="Z134" s="69"/>
       <c r="AA134" s="70"/>
     </row>
-    <row r="135" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="68"/>
       <c r="C135" s="69"/>
       <c r="D135" s="69"/>
@@ -7245,7 +7245,7 @@
       <c r="Z135" s="69"/>
       <c r="AA135" s="70"/>
     </row>
-    <row r="136" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="68"/>
       <c r="C136" s="69"/>
       <c r="D136" s="69"/>
@@ -7273,7 +7273,7 @@
       <c r="Z136" s="69"/>
       <c r="AA136" s="70"/>
     </row>
-    <row r="137" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="68"/>
       <c r="C137" s="69"/>
       <c r="D137" s="69"/>
@@ -7301,7 +7301,7 @@
       <c r="Z137" s="69"/>
       <c r="AA137" s="70"/>
     </row>
-    <row r="138" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="68"/>
       <c r="C138" s="69"/>
       <c r="D138" s="69"/>
@@ -7329,7 +7329,7 @@
       <c r="Z138" s="69"/>
       <c r="AA138" s="70"/>
     </row>
-    <row r="139" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="68"/>
       <c r="C139" s="69"/>
       <c r="D139" s="69"/>
@@ -7357,7 +7357,7 @@
       <c r="Z139" s="69"/>
       <c r="AA139" s="70"/>
     </row>
-    <row r="140" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="68"/>
       <c r="C140" s="69"/>
       <c r="D140" s="69"/>
@@ -7385,7 +7385,7 @@
       <c r="Z140" s="69"/>
       <c r="AA140" s="70"/>
     </row>
-    <row r="141" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="68"/>
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
@@ -7413,7 +7413,7 @@
       <c r="Z141" s="69"/>
       <c r="AA141" s="70"/>
     </row>
-    <row r="142" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="68"/>
       <c r="C142" s="69"/>
       <c r="D142" s="69"/>
@@ -7441,7 +7441,7 @@
       <c r="Z142" s="69"/>
       <c r="AA142" s="70"/>
     </row>
-    <row r="143" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="68"/>
       <c r="C143" s="69"/>
       <c r="D143" s="69"/>
@@ -7469,7 +7469,7 @@
       <c r="Z143" s="69"/>
       <c r="AA143" s="70"/>
     </row>
-    <row r="144" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="68"/>
       <c r="C144" s="69"/>
       <c r="D144" s="69"/>
@@ -7497,7 +7497,7 @@
       <c r="Z144" s="69"/>
       <c r="AA144" s="70"/>
     </row>
-    <row r="145" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="68"/>
       <c r="C145" s="69"/>
       <c r="D145" s="69"/>
@@ -7525,7 +7525,7 @@
       <c r="Z145" s="69"/>
       <c r="AA145" s="70"/>
     </row>
-    <row r="146" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="68"/>
       <c r="C146" s="69"/>
       <c r="D146" s="69"/>
@@ -7553,7 +7553,7 @@
       <c r="Z146" s="69"/>
       <c r="AA146" s="70"/>
     </row>
-    <row r="147" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="68"/>
       <c r="C147" s="69"/>
       <c r="D147" s="69"/>
@@ -7581,7 +7581,7 @@
       <c r="Z147" s="69"/>
       <c r="AA147" s="70"/>
     </row>
-    <row r="148" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="68"/>
       <c r="C148" s="69"/>
       <c r="D148" s="69"/>
@@ -7609,7 +7609,7 @@
       <c r="Z148" s="69"/>
       <c r="AA148" s="70"/>
     </row>
-    <row r="149" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="68"/>
       <c r="C149" s="69"/>
       <c r="D149" s="69"/>
@@ -7637,7 +7637,7 @@
       <c r="Z149" s="69"/>
       <c r="AA149" s="70"/>
     </row>
-    <row r="150" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="68"/>
       <c r="C150" s="69"/>
       <c r="D150" s="69"/>
@@ -7665,7 +7665,7 @@
       <c r="Z150" s="69"/>
       <c r="AA150" s="70"/>
     </row>
-    <row r="151" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="68"/>
       <c r="C151" s="69"/>
       <c r="D151" s="69"/>
@@ -7693,7 +7693,7 @@
       <c r="Z151" s="69"/>
       <c r="AA151" s="70"/>
     </row>
-    <row r="152" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="68"/>
       <c r="C152" s="69"/>
       <c r="D152" s="69"/>
@@ -7721,7 +7721,7 @@
       <c r="Z152" s="69"/>
       <c r="AA152" s="70"/>
     </row>
-    <row r="153" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="68"/>
       <c r="C153" s="69"/>
       <c r="D153" s="69"/>
@@ -7749,7 +7749,7 @@
       <c r="Z153" s="69"/>
       <c r="AA153" s="70"/>
     </row>
-    <row r="154" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="68"/>
       <c r="C154" s="69"/>
       <c r="D154" s="69"/>
@@ -7777,7 +7777,7 @@
       <c r="Z154" s="69"/>
       <c r="AA154" s="70"/>
     </row>
-    <row r="155" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="68"/>
       <c r="C155" s="69"/>
       <c r="D155" s="69"/>
@@ -7805,7 +7805,7 @@
       <c r="Z155" s="69"/>
       <c r="AA155" s="70"/>
     </row>
-    <row r="156" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="68"/>
       <c r="C156" s="69"/>
       <c r="D156" s="69"/>
@@ -7833,7 +7833,7 @@
       <c r="Z156" s="69"/>
       <c r="AA156" s="70"/>
     </row>
-    <row r="157" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="68"/>
       <c r="C157" s="69"/>
       <c r="D157" s="69"/>
@@ -7861,7 +7861,7 @@
       <c r="Z157" s="69"/>
       <c r="AA157" s="70"/>
     </row>
-    <row r="158" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="71"/>
       <c r="C158" s="72"/>
       <c r="D158" s="72"/>
@@ -7904,79 +7904,79 @@
     <mergeCell ref="AA18:AL18"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F27 B31:F49">
-    <cfRule type="expression" dxfId="23" priority="977">
-      <formula>$B9=$M$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="966">
+    <cfRule type="expression" dxfId="23" priority="966">
       <formula>$B9=$M$15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="967">
+    <cfRule type="expression" dxfId="22" priority="967">
       <formula>$B9=$M$13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="968">
+    <cfRule type="expression" dxfId="21" priority="968">
       <formula>$B9=$M$18</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="969">
+    <cfRule type="expression" dxfId="20" priority="969">
       <formula>$B9=$M$14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="970">
+    <cfRule type="expression" dxfId="19" priority="970">
       <formula>$B9=$M$19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="971">
+    <cfRule type="expression" dxfId="18" priority="971">
       <formula>$B9=$M$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="972">
+    <cfRule type="expression" dxfId="17" priority="972">
       <formula>$B9=$M$16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="973">
+    <cfRule type="expression" dxfId="16" priority="973">
       <formula>$B9=$M$20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="974">
+    <cfRule type="expression" dxfId="15" priority="974">
       <formula>$B9=$M$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="975">
+    <cfRule type="expression" dxfId="14" priority="975">
       <formula>$B9=$M$17</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="976">
+    <cfRule type="expression" dxfId="13" priority="976">
       <formula>$B9=$M$11</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="977">
+      <formula>$B9=$M$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K27 G31:K49">
-    <cfRule type="expression" dxfId="11" priority="955">
+    <cfRule type="expression" dxfId="11" priority="954">
+      <formula>$K9=$M$15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="955">
       <formula>$K9=$M$13</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="956">
+    <cfRule type="expression" dxfId="9" priority="956">
       <formula>$K9=$M$18</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="957">
+    <cfRule type="expression" dxfId="8" priority="957">
       <formula>$K9=$M$14</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="958">
+    <cfRule type="expression" dxfId="7" priority="958">
       <formula>$K9=$M$19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="959">
+    <cfRule type="expression" dxfId="6" priority="959">
       <formula>$K9=$M$10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="960">
+    <cfRule type="expression" dxfId="5" priority="960">
       <formula>$K9=$M$16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="961">
+    <cfRule type="expression" dxfId="4" priority="961">
       <formula>$K9=$M$20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="962">
+    <cfRule type="expression" dxfId="3" priority="962">
       <formula>$K9=$M$12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="963">
+    <cfRule type="expression" dxfId="2" priority="963">
       <formula>$K9=$M$17</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="964">
+    <cfRule type="expression" dxfId="1" priority="964">
       <formula>$K9=$M$11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="965">
+    <cfRule type="expression" dxfId="0" priority="965">
       <formula>$K9=$M$9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="954">
-      <formula>$K9=$M$15</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8001,20 +8001,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AECF287-01B5-9A49-98CA-7F36E611FCB7}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>159</v>
       </c>
@@ -8035,7 +8037,7 @@
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>165</v>
       </c>
@@ -8058,7 +8060,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>171</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>180</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>185</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>189</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>191</v>
       </c>
@@ -8175,7 +8177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>193</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>195</v>
       </c>
@@ -8204,7 +8206,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>198</v>
       </c>
@@ -8212,7 +8214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>200</v>
       </c>
@@ -8228,7 +8230,7 @@
         <v>0.12217304763960309</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="16" t="s">
         <v>201</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>205</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>208</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>0.25000000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>210</v>
       </c>
